--- a/model/Outputs/8. Fixed RE/With PV/Output Files/50/Output_6_27.xlsx
+++ b/model/Outputs/8. Fixed RE/With PV/Output Files/50/Output_6_27.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>80663.73099500731</v>
+        <v>16052082.46800645</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>80663.73099500731</v>
+        <v>16052082.46800645</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>65614.34050177831</v>
+        <v>3940022.790763976</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>65614.34050177831</v>
+        <v>3940022.790763976</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1647583070.161899</v>
+        <v>62581087.82270409</v>
       </c>
     </row>
   </sheetData>
@@ -682,7 +682,7 @@
         <v>397.8840054528454</v>
       </c>
       <c r="H2" t="n">
-        <v>347.8590406130752</v>
+        <v>346.470696320097</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -715,7 +715,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>359.6204767756825</v>
+        <v>361.0088210686545</v>
       </c>
       <c r="T2" t="n">
         <v>560.964918411981</v>
@@ -761,10 +761,10 @@
         <v>322.5970075731406</v>
       </c>
       <c r="H3" t="n">
-        <v>301.8178796392513</v>
+        <v>300.2841796816783</v>
       </c>
       <c r="I3" t="n">
-        <v>107.3959878205678</v>
+        <v>108.929687778141</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -919,7 +919,7 @@
         <v>397.8840054528454</v>
       </c>
       <c r="H5" t="n">
-        <v>347.8590406130752</v>
+        <v>346.470696320097</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -952,7 +952,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>359.6204767756825</v>
+        <v>361.0088210686545</v>
       </c>
       <c r="T5" t="n">
         <v>560.964918411981</v>
@@ -998,10 +998,10 @@
         <v>322.5970075731406</v>
       </c>
       <c r="H6" t="n">
-        <v>301.8178796392513</v>
+        <v>300.2841796816783</v>
       </c>
       <c r="I6" t="n">
-        <v>107.3959878205678</v>
+        <v>108.929687778141</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1156,7 +1156,7 @@
         <v>397.8840054528454</v>
       </c>
       <c r="H8" t="n">
-        <v>346.4706963201041</v>
+        <v>347.8590406130752</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1195,7 +1195,7 @@
         <v>560.964918411981</v>
       </c>
       <c r="U8" t="n">
-        <v>648.751427201877</v>
+        <v>647.3630829088994</v>
       </c>
       <c r="V8" t="n">
         <v>629.8510241668239</v>
@@ -1235,7 +1235,7 @@
         <v>322.5970075731406</v>
       </c>
       <c r="H9" t="n">
-        <v>300.2841796816782</v>
+        <v>300.2841796816783</v>
       </c>
       <c r="I9" t="n">
         <v>108.929687778141</v>
@@ -1426,10 +1426,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>361.0088210686545</v>
+        <v>359.6204767756762</v>
       </c>
       <c r="T11" t="n">
-        <v>559.5765741190093</v>
+        <v>560.964918411981</v>
       </c>
       <c r="U11" t="n">
         <v>648.751427201877</v>
@@ -1554,7 +1554,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>97.40414414470841</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1563,13 +1563,13 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>31.85592323974635</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>107.6476277959926</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>25.70923750768745</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
@@ -1590,7 +1590,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>67.808644398718</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -1663,13 +1663,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>361.0088210686545</v>
+        <v>359.6204767756762</v>
       </c>
       <c r="T14" t="n">
         <v>560.964918411981</v>
       </c>
       <c r="U14" t="n">
-        <v>647.3630829089047</v>
+        <v>648.751427201877</v>
       </c>
       <c r="V14" t="n">
         <v>629.8510241668239</v>
@@ -1800,13 +1800,13 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>31.85592323974635</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>107.6476277959926</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>25.70923750768745</v>
       </c>
       <c r="O16" t="n">
         <v>0</v>
@@ -1830,7 +1830,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>165.2127885434264</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -1900,7 +1900,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>359.6204767756825</v>
+        <v>361.0088210686545</v>
       </c>
       <c r="T17" t="n">
         <v>560.964918411981</v>
@@ -1915,7 +1915,7 @@
         <v>638.3734759809475</v>
       </c>
       <c r="X17" t="n">
-        <v>592.2818334606677</v>
+        <v>590.8934891676897</v>
       </c>
       <c r="Y17" t="n">
         <v>511.3174326828064</v>
@@ -1976,10 +1976,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>352.1613821980396</v>
+        <v>350.6276822404662</v>
       </c>
       <c r="S18" t="n">
-        <v>406.6592151013782</v>
+        <v>408.192915058951</v>
       </c>
       <c r="T18" t="n">
         <v>392.6911708778912</v>
@@ -2025,10 +2025,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>67.808644398718</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>97.40414414470841</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2037,13 +2037,13 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>31.85592323974635</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>107.6476277959926</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>25.70923750768745</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
@@ -2101,7 +2101,7 @@
         <v>404.8896287080119</v>
       </c>
       <c r="G20" t="n">
-        <v>396.4956611598743</v>
+        <v>397.8840054528454</v>
       </c>
       <c r="H20" t="n">
         <v>347.8590406130752</v>
@@ -2137,7 +2137,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>361.0088210686545</v>
+        <v>359.6204767756762</v>
       </c>
       <c r="T20" t="n">
         <v>560.964918411981</v>
@@ -2213,10 +2213,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>350.6276822404662</v>
+        <v>352.1613821980396</v>
       </c>
       <c r="S21" t="n">
-        <v>408.192915058951</v>
+        <v>406.6592151013782</v>
       </c>
       <c r="T21" t="n">
         <v>392.6911708778912</v>
@@ -2262,10 +2262,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>67.808644398718</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>97.40414414470841</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2274,13 +2274,13 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>31.85592323974635</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>107.6476277959926</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>25.70923750768745</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
@@ -2341,7 +2341,7 @@
         <v>397.8840054528454</v>
       </c>
       <c r="H23" t="n">
-        <v>347.8590406130752</v>
+        <v>346.470696320097</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2374,7 +2374,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>359.6204767756825</v>
+        <v>361.0088210686545</v>
       </c>
       <c r="T23" t="n">
         <v>560.964918411981</v>
@@ -2499,7 +2499,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>165.2127885434264</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2511,13 +2511,13 @@
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>31.85592323974635</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>107.6476277959926</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>25.70923750768745</v>
       </c>
       <c r="O25" t="n">
         <v>0</v>
@@ -2572,10 +2572,10 @@
         <v>404.3632896068686</v>
       </c>
       <c r="F26" t="n">
-        <v>403.5012844150336</v>
+        <v>404.8896287080119</v>
       </c>
       <c r="G26" t="n">
-        <v>397.8840054528454</v>
+        <v>396.4956611598672</v>
       </c>
       <c r="H26" t="n">
         <v>347.8590406130752</v>
@@ -2748,13 +2748,13 @@
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>31.85592323974635</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>107.6476277959926</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>25.70923750768745</v>
       </c>
       <c r="O28" t="n">
         <v>0</v>
@@ -2778,7 +2778,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>165.2127885434264</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -2800,7 +2800,7 @@
         <v>481.9993129555745</v>
       </c>
       <c r="C29" t="n">
-        <v>448.0862339500159</v>
+        <v>449.4745782429939</v>
       </c>
       <c r="D29" t="n">
         <v>410.3391557398498</v>
@@ -2848,7 +2848,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>361.0088210686545</v>
+        <v>359.6204767756762</v>
       </c>
       <c r="T29" t="n">
         <v>560.964918411981</v>
@@ -2976,7 +2976,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>97.40414414470841</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2985,13 +2985,13 @@
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>31.85592323974635</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>107.6476277959926</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>25.70923750768745</v>
       </c>
       <c r="O31" t="n">
         <v>0</v>
@@ -3018,7 +3018,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>67.808644398718</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3043,13 +3043,13 @@
         <v>410.3391557398498</v>
       </c>
       <c r="E32" t="n">
-        <v>404.3632896068686</v>
+        <v>402.9749453138904</v>
       </c>
       <c r="F32" t="n">
         <v>404.8896287080119</v>
       </c>
       <c r="G32" t="n">
-        <v>396.4956611598672</v>
+        <v>397.8840054528454</v>
       </c>
       <c r="H32" t="n">
         <v>347.8590406130752</v>
@@ -3213,7 +3213,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>14.39810218700126</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3222,13 +3222,13 @@
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>31.85592323974635</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>107.6476277959926</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>25.70923750768745</v>
       </c>
       <c r="O34" t="n">
         <v>0</v>
@@ -3249,7 +3249,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>150.8146863564251</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>480.6109686625962</v>
+        <v>481.9993129555745</v>
       </c>
       <c r="C35" t="n">
         <v>449.4745782429939</v>
@@ -3337,7 +3337,7 @@
         <v>638.3734759809475</v>
       </c>
       <c r="X35" t="n">
-        <v>592.2818334606677</v>
+        <v>590.8934891676897</v>
       </c>
       <c r="Y35" t="n">
         <v>511.3174326828064</v>
@@ -3401,7 +3401,7 @@
         <v>352.1613821980396</v>
       </c>
       <c r="S36" t="n">
-        <v>408.192915058951</v>
+        <v>406.6592151013782</v>
       </c>
       <c r="T36" t="n">
         <v>392.6911708778912</v>
@@ -3413,7 +3413,7 @@
         <v>414.5106671915202</v>
       </c>
       <c r="W36" t="n">
-        <v>430.8394429522557</v>
+        <v>432.3731429098285</v>
       </c>
       <c r="X36" t="n">
         <v>419.8627394453875</v>
@@ -3459,13 +3459,13 @@
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>31.85592323974635</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>107.6476277959926</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>25.70923750768745</v>
       </c>
       <c r="O37" t="n">
         <v>0</v>
@@ -3492,7 +3492,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>165.2127885434264</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3508,7 +3508,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>480.6109686625962</v>
+        <v>481.9993129555745</v>
       </c>
       <c r="C38" t="n">
         <v>449.4745782429939</v>
@@ -3568,7 +3568,7 @@
         <v>648.751427201877</v>
       </c>
       <c r="V38" t="n">
-        <v>629.8510241668239</v>
+        <v>628.4626798738458</v>
       </c>
       <c r="W38" t="n">
         <v>638.3734759809475</v>
@@ -3635,7 +3635,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>352.1613821980396</v>
+        <v>350.6276822404662</v>
       </c>
       <c r="S39" t="n">
         <v>408.192915058951</v>
@@ -3650,7 +3650,7 @@
         <v>414.5106671915202</v>
       </c>
       <c r="W39" t="n">
-        <v>430.8394429522557</v>
+        <v>432.3731429098285</v>
       </c>
       <c r="X39" t="n">
         <v>419.8627394453875</v>
@@ -3675,7 +3675,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>165.2127885434264</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3696,13 +3696,13 @@
         <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>31.85592323974635</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>107.6476277959926</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>25.70923750768745</v>
       </c>
       <c r="O40" t="n">
         <v>0</v>
@@ -3748,7 +3748,7 @@
         <v>481.9993129555745</v>
       </c>
       <c r="C41" t="n">
-        <v>448.0862339500159</v>
+        <v>449.4745782429939</v>
       </c>
       <c r="D41" t="n">
         <v>410.3391557398498</v>
@@ -3796,7 +3796,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>361.0088210686545</v>
+        <v>359.6204767756762</v>
       </c>
       <c r="T41" t="n">
         <v>560.964918411981</v>
@@ -3875,7 +3875,7 @@
         <v>352.1613821980396</v>
       </c>
       <c r="S42" t="n">
-        <v>408.192915058951</v>
+        <v>406.6592151013782</v>
       </c>
       <c r="T42" t="n">
         <v>392.6911708778912</v>
@@ -3887,7 +3887,7 @@
         <v>414.5106671915202</v>
       </c>
       <c r="W42" t="n">
-        <v>430.8394429522557</v>
+        <v>432.3731429098285</v>
       </c>
       <c r="X42" t="n">
         <v>419.8627394453875</v>
@@ -3921,10 +3921,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>67.808644398718</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>97.40414414470841</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3933,13 +3933,13 @@
         <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>31.85592323974635</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>107.6476277959926</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>25.70923750768745</v>
       </c>
       <c r="O43" t="n">
         <v>0</v>
@@ -4000,7 +4000,7 @@
         <v>397.8840054528454</v>
       </c>
       <c r="H44" t="n">
-        <v>347.8590406130752</v>
+        <v>346.470696320097</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4033,7 +4033,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>359.620476775678</v>
+        <v>361.0088210686545</v>
       </c>
       <c r="T44" t="n">
         <v>560.964918411981</v>
@@ -4112,7 +4112,7 @@
         <v>352.1613821980396</v>
       </c>
       <c r="S45" t="n">
-        <v>408.192915058951</v>
+        <v>406.6592151013782</v>
       </c>
       <c r="T45" t="n">
         <v>392.6911708778912</v>
@@ -4124,7 +4124,7 @@
         <v>414.5106671915202</v>
       </c>
       <c r="W45" t="n">
-        <v>430.8394429522557</v>
+        <v>432.3731429098285</v>
       </c>
       <c r="X45" t="n">
         <v>419.8627394453875</v>
@@ -4158,7 +4158,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>165.2127885434264</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4170,13 +4170,13 @@
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>31.85592323974635</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>107.6476277959926</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>25.70923750768745</v>
       </c>
       <c r="O46" t="n">
         <v>0</v>
@@ -4312,76 +4312,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2580.161715518834</v>
+        <v>2578.759347546128</v>
       </c>
       <c r="C2" t="n">
-        <v>2126.14699002086</v>
+        <v>2124.744622048154</v>
       </c>
       <c r="D2" t="n">
-        <v>1711.662994324042</v>
+        <v>1710.260626351336</v>
       </c>
       <c r="E2" t="n">
-        <v>1303.215227044376</v>
+        <v>1301.812859071671</v>
       </c>
       <c r="F2" t="n">
-        <v>894.2358041069907</v>
+        <v>892.8334361342853</v>
       </c>
       <c r="G2" t="n">
-        <v>492.3327682960357</v>
+        <v>490.9304003233303</v>
       </c>
       <c r="H2" t="n">
-        <v>140.9600000000001</v>
+        <v>140.96</v>
       </c>
       <c r="I2" t="n">
-        <v>210.3162975291174</v>
+        <v>216.5482970397704</v>
       </c>
       <c r="J2" t="n">
-        <v>669.1334430047696</v>
+        <v>1101.367131735718</v>
       </c>
       <c r="K2" t="n">
-        <v>1408.776586572609</v>
+        <v>1841.010275303557</v>
       </c>
       <c r="L2" t="n">
-        <v>2326.369309889192</v>
+        <v>2963.70989871419</v>
       </c>
       <c r="M2" t="n">
-        <v>2808.548509402694</v>
+        <v>3445.889098227693</v>
       </c>
       <c r="N2" t="n">
-        <v>3373.591573275366</v>
+        <v>4010.932162100365</v>
       </c>
       <c r="O2" t="n">
-        <v>4283.74645621611</v>
+        <v>5755.312162100365</v>
       </c>
       <c r="P2" t="n">
-        <v>5981.485937660907</v>
+        <v>6591.179490197778</v>
       </c>
       <c r="Q2" t="n">
-        <v>7048.000000000006</v>
+        <v>7048</v>
       </c>
       <c r="R2" t="n">
-        <v>7048.000000000006</v>
+        <v>7048</v>
       </c>
       <c r="S2" t="n">
-        <v>6684.746993155883</v>
+        <v>6683.344625183177</v>
       </c>
       <c r="T2" t="n">
-        <v>6118.11576243671</v>
+        <v>6116.713394464005</v>
       </c>
       <c r="U2" t="n">
-        <v>5462.811290515622</v>
+        <v>5461.408922542916</v>
       </c>
       <c r="V2" t="n">
-        <v>4826.598134791558</v>
+        <v>4825.195766818852</v>
       </c>
       <c r="W2" t="n">
-        <v>4181.77644188151</v>
+        <v>4180.374073908803</v>
       </c>
       <c r="X2" t="n">
-        <v>3583.511963638411</v>
+        <v>3582.109595665705</v>
       </c>
       <c r="Y2" t="n">
-        <v>3067.029708403253</v>
+        <v>3065.627340430547</v>
       </c>
     </row>
     <row r="3">
@@ -4409,13 +4409,13 @@
         <v>554.3073408685043</v>
       </c>
       <c r="H3" t="n">
-        <v>249.4407957783515</v>
+        <v>250.9899876546879</v>
       </c>
       <c r="I3" t="n">
-        <v>140.9600000000001</v>
+        <v>140.96</v>
       </c>
       <c r="J3" t="n">
-        <v>558.8475295149218</v>
+        <v>558.8475295149217</v>
       </c>
       <c r="K3" t="n">
         <v>1250.415257213079</v>
@@ -4470,76 +4470,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>290.613385621174</v>
+        <v>140.96</v>
       </c>
       <c r="C4" t="n">
-        <v>290.613385621174</v>
+        <v>140.96</v>
       </c>
       <c r="D4" t="n">
-        <v>290.613385621174</v>
+        <v>140.96</v>
       </c>
       <c r="E4" t="n">
-        <v>290.613385621174</v>
+        <v>140.96</v>
       </c>
       <c r="F4" t="n">
-        <v>290.613385621174</v>
+        <v>140.96</v>
       </c>
       <c r="G4" t="n">
-        <v>290.613385621174</v>
+        <v>140.96</v>
       </c>
       <c r="H4" t="n">
-        <v>290.613385621174</v>
+        <v>140.96</v>
       </c>
       <c r="I4" t="n">
-        <v>290.613385621174</v>
+        <v>140.96</v>
       </c>
       <c r="J4" t="n">
-        <v>440.0999956178875</v>
+        <v>290.4466099967136</v>
       </c>
       <c r="K4" t="n">
-        <v>457.4949902104936</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="L4" t="n">
-        <v>457.4949902104936</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="M4" t="n">
-        <v>457.4949902104936</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="N4" t="n">
-        <v>457.4949902104936</v>
+        <v>426.6131206966359</v>
       </c>
       <c r="O4" t="n">
-        <v>457.4949902104936</v>
+        <v>426.6131206966359</v>
       </c>
       <c r="P4" t="n">
-        <v>457.4949902104936</v>
+        <v>457.4949902104935</v>
       </c>
       <c r="Q4" t="n">
-        <v>351.2038120028188</v>
+        <v>351.2038120028187</v>
       </c>
       <c r="R4" t="n">
-        <v>140.9600000000001</v>
+        <v>140.96</v>
       </c>
       <c r="S4" t="n">
-        <v>140.9600000000001</v>
+        <v>140.96</v>
       </c>
       <c r="T4" t="n">
-        <v>140.9600000000001</v>
+        <v>140.96</v>
       </c>
       <c r="U4" t="n">
-        <v>140.9600000000001</v>
+        <v>140.96</v>
       </c>
       <c r="V4" t="n">
-        <v>140.9600000000001</v>
+        <v>140.96</v>
       </c>
       <c r="W4" t="n">
-        <v>140.9600000000001</v>
+        <v>140.96</v>
       </c>
       <c r="X4" t="n">
-        <v>140.9600000000001</v>
+        <v>140.96</v>
       </c>
       <c r="Y4" t="n">
-        <v>252.3693006790324</v>
+        <v>140.96</v>
       </c>
     </row>
     <row r="5">
@@ -4549,76 +4549,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2580.161715518834</v>
+        <v>2578.759347546128</v>
       </c>
       <c r="C5" t="n">
-        <v>2126.14699002086</v>
+        <v>2124.744622048154</v>
       </c>
       <c r="D5" t="n">
-        <v>1711.662994324042</v>
+        <v>1710.260626351336</v>
       </c>
       <c r="E5" t="n">
-        <v>1303.215227044376</v>
+        <v>1301.812859071671</v>
       </c>
       <c r="F5" t="n">
-        <v>894.2358041069907</v>
+        <v>892.8334361342853</v>
       </c>
       <c r="G5" t="n">
-        <v>492.3327682960357</v>
+        <v>490.9304003233303</v>
       </c>
       <c r="H5" t="n">
-        <v>140.9600000000001</v>
+        <v>140.96</v>
       </c>
       <c r="I5" t="n">
-        <v>140.9600000000001</v>
+        <v>140.96</v>
       </c>
       <c r="J5" t="n">
-        <v>599.7771454756522</v>
+        <v>599.7771454756521</v>
       </c>
       <c r="K5" t="n">
-        <v>2049.12665539136</v>
+        <v>1339.420289043491</v>
       </c>
       <c r="L5" t="n">
-        <v>3681.051378010449</v>
+        <v>2257.013012360075</v>
       </c>
       <c r="M5" t="n">
-        <v>4163.230577523952</v>
+        <v>2739.192211873577</v>
       </c>
       <c r="N5" t="n">
-        <v>4728.273641396624</v>
+        <v>4118.58008885974</v>
       </c>
       <c r="O5" t="n">
-        <v>5638.428524337368</v>
+        <v>5028.734971800483</v>
       </c>
       <c r="P5" t="n">
-        <v>6474.295852434781</v>
+        <v>5864.602299897897</v>
       </c>
       <c r="Q5" t="n">
-        <v>6931.116362237003</v>
+        <v>6931.116362236997</v>
       </c>
       <c r="R5" t="n">
-        <v>7048.000000000006</v>
+        <v>7048</v>
       </c>
       <c r="S5" t="n">
-        <v>6684.746993155883</v>
+        <v>6683.344625183177</v>
       </c>
       <c r="T5" t="n">
-        <v>6118.11576243671</v>
+        <v>6116.713394464005</v>
       </c>
       <c r="U5" t="n">
-        <v>5462.811290515622</v>
+        <v>5461.408922542916</v>
       </c>
       <c r="V5" t="n">
-        <v>4826.598134791558</v>
+        <v>4825.195766818852</v>
       </c>
       <c r="W5" t="n">
-        <v>4181.77644188151</v>
+        <v>4180.374073908803</v>
       </c>
       <c r="X5" t="n">
-        <v>3583.511963638411</v>
+        <v>3582.109595665705</v>
       </c>
       <c r="Y5" t="n">
-        <v>3067.029708403253</v>
+        <v>3065.627340430547</v>
       </c>
     </row>
     <row r="6">
@@ -4646,13 +4646,13 @@
         <v>554.3073408685043</v>
       </c>
       <c r="H6" t="n">
-        <v>249.4407957783515</v>
+        <v>250.9899876546879</v>
       </c>
       <c r="I6" t="n">
-        <v>140.9600000000001</v>
+        <v>140.96</v>
       </c>
       <c r="J6" t="n">
-        <v>558.8475295149218</v>
+        <v>558.8475295149217</v>
       </c>
       <c r="K6" t="n">
         <v>1250.415257213079</v>
@@ -4707,76 +4707,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>140.9600000000001</v>
+        <v>140.96</v>
       </c>
       <c r="C7" t="n">
-        <v>140.9600000000001</v>
+        <v>140.96</v>
       </c>
       <c r="D7" t="n">
-        <v>140.9600000000001</v>
+        <v>140.96</v>
       </c>
       <c r="E7" t="n">
-        <v>140.9600000000001</v>
+        <v>140.96</v>
       </c>
       <c r="F7" t="n">
-        <v>140.9600000000001</v>
+        <v>140.96</v>
       </c>
       <c r="G7" t="n">
-        <v>140.9600000000001</v>
+        <v>140.96</v>
       </c>
       <c r="H7" t="n">
-        <v>140.9600000000001</v>
+        <v>140.96</v>
       </c>
       <c r="I7" t="n">
-        <v>140.9600000000001</v>
+        <v>140.96</v>
       </c>
       <c r="J7" t="n">
-        <v>440.0999956178875</v>
+        <v>290.4466099967136</v>
       </c>
       <c r="K7" t="n">
-        <v>457.4949902104936</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="L7" t="n">
-        <v>457.4949902104936</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="M7" t="n">
-        <v>457.4949902104936</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="N7" t="n">
-        <v>457.4949902104936</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="O7" t="n">
-        <v>457.4949902104936</v>
+        <v>426.6131206966359</v>
       </c>
       <c r="P7" t="n">
-        <v>457.4949902104936</v>
+        <v>457.4949902104935</v>
       </c>
       <c r="Q7" t="n">
-        <v>351.2038120028188</v>
+        <v>351.2038120028187</v>
       </c>
       <c r="R7" t="n">
-        <v>140.9600000000001</v>
+        <v>140.96</v>
       </c>
       <c r="S7" t="n">
-        <v>140.9600000000001</v>
+        <v>140.96</v>
       </c>
       <c r="T7" t="n">
-        <v>140.9600000000001</v>
+        <v>140.96</v>
       </c>
       <c r="U7" t="n">
-        <v>140.9600000000001</v>
+        <v>140.96</v>
       </c>
       <c r="V7" t="n">
-        <v>140.9600000000001</v>
+        <v>140.96</v>
       </c>
       <c r="W7" t="n">
-        <v>140.9600000000001</v>
+        <v>140.96</v>
       </c>
       <c r="X7" t="n">
-        <v>140.9600000000001</v>
+        <v>140.96</v>
       </c>
       <c r="Y7" t="n">
-        <v>140.9600000000001</v>
+        <v>140.96</v>
       </c>
     </row>
     <row r="8">
@@ -4786,76 +4786,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2578.759347546135</v>
+        <v>2580.161715518833</v>
       </c>
       <c r="C8" t="n">
-        <v>2124.744622048162</v>
+        <v>2126.146990020859</v>
       </c>
       <c r="D8" t="n">
-        <v>1710.260626351343</v>
+        <v>1711.662994324041</v>
       </c>
       <c r="E8" t="n">
-        <v>1301.812859071678</v>
+        <v>1303.215227044376</v>
       </c>
       <c r="F8" t="n">
-        <v>892.8334361342926</v>
+        <v>894.2358041069906</v>
       </c>
       <c r="G8" t="n">
-        <v>490.9304003233376</v>
+        <v>492.3327682960356</v>
       </c>
       <c r="H8" t="n">
-        <v>140.9600000000001</v>
+        <v>140.96</v>
       </c>
       <c r="I8" t="n">
-        <v>216.5482970397705</v>
+        <v>216.5482970397704</v>
       </c>
       <c r="J8" t="n">
-        <v>675.3654425154227</v>
+        <v>1101.367131735718</v>
       </c>
       <c r="K8" t="n">
-        <v>1415.008586083262</v>
+        <v>1841.010275303557</v>
       </c>
       <c r="L8" t="n">
-        <v>2332.601309399844</v>
+        <v>2758.60299862014</v>
       </c>
       <c r="M8" t="n">
-        <v>2814.780508913348</v>
+        <v>3418.242061939566</v>
       </c>
       <c r="N8" t="n">
-        <v>3379.82357278602</v>
+        <v>3983.285125812238</v>
       </c>
       <c r="O8" t="n">
-        <v>4289.978455726764</v>
+        <v>4893.440008752982</v>
       </c>
       <c r="P8" t="n">
-        <v>5987.71793717156</v>
+        <v>6591.179490197778</v>
       </c>
       <c r="Q8" t="n">
-        <v>6931.116362237003</v>
+        <v>7048</v>
       </c>
       <c r="R8" t="n">
-        <v>7048.000000000006</v>
+        <v>7048</v>
       </c>
       <c r="S8" t="n">
-        <v>6683.344625183184</v>
+        <v>6683.344625183177</v>
       </c>
       <c r="T8" t="n">
-        <v>6116.713394464011</v>
+        <v>6116.713394464005</v>
       </c>
       <c r="U8" t="n">
-        <v>5461.408922542923</v>
+        <v>5462.811290515621</v>
       </c>
       <c r="V8" t="n">
-        <v>4825.195766818859</v>
+        <v>4826.598134791557</v>
       </c>
       <c r="W8" t="n">
-        <v>4180.374073908811</v>
+        <v>4181.776441881509</v>
       </c>
       <c r="X8" t="n">
-        <v>3582.109595665712</v>
+        <v>3583.51196363841</v>
       </c>
       <c r="Y8" t="n">
-        <v>3065.627340430554</v>
+        <v>3067.029708403252</v>
       </c>
     </row>
     <row r="9">
@@ -4883,13 +4883,13 @@
         <v>554.3073408685043</v>
       </c>
       <c r="H9" t="n">
-        <v>250.989987654688</v>
+        <v>250.9899876546879</v>
       </c>
       <c r="I9" t="n">
-        <v>140.9600000000001</v>
+        <v>140.96</v>
       </c>
       <c r="J9" t="n">
-        <v>558.8475295149218</v>
+        <v>558.8475295149217</v>
       </c>
       <c r="K9" t="n">
         <v>1250.415257213079</v>
@@ -4944,76 +4944,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>140.9600000000001</v>
+        <v>140.96</v>
       </c>
       <c r="C10" t="n">
-        <v>140.9600000000001</v>
+        <v>140.96</v>
       </c>
       <c r="D10" t="n">
-        <v>140.9600000000001</v>
+        <v>140.96</v>
       </c>
       <c r="E10" t="n">
-        <v>140.9600000000001</v>
+        <v>140.96</v>
       </c>
       <c r="F10" t="n">
-        <v>140.9600000000001</v>
+        <v>140.96</v>
       </c>
       <c r="G10" t="n">
-        <v>140.9600000000001</v>
+        <v>140.96</v>
       </c>
       <c r="H10" t="n">
-        <v>140.9600000000001</v>
+        <v>140.96</v>
       </c>
       <c r="I10" t="n">
-        <v>140.9600000000001</v>
+        <v>140.96</v>
       </c>
       <c r="J10" t="n">
-        <v>290.4466099967137</v>
+        <v>290.4466099967136</v>
       </c>
       <c r="K10" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="L10" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="M10" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="N10" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="O10" t="n">
-        <v>426.613120696636</v>
+        <v>426.6131206966359</v>
       </c>
       <c r="P10" t="n">
-        <v>457.4949902104936</v>
+        <v>457.4949902104935</v>
       </c>
       <c r="Q10" t="n">
-        <v>351.2038120028188</v>
+        <v>351.2038120028187</v>
       </c>
       <c r="R10" t="n">
-        <v>140.9600000000001</v>
+        <v>140.96</v>
       </c>
       <c r="S10" t="n">
-        <v>140.9600000000001</v>
+        <v>140.96</v>
       </c>
       <c r="T10" t="n">
-        <v>140.9600000000001</v>
+        <v>140.96</v>
       </c>
       <c r="U10" t="n">
-        <v>140.9600000000001</v>
+        <v>140.96</v>
       </c>
       <c r="V10" t="n">
-        <v>140.9600000000001</v>
+        <v>140.96</v>
       </c>
       <c r="W10" t="n">
-        <v>140.9600000000001</v>
+        <v>140.96</v>
       </c>
       <c r="X10" t="n">
-        <v>140.9600000000001</v>
+        <v>140.96</v>
       </c>
       <c r="Y10" t="n">
-        <v>140.9600000000001</v>
+        <v>140.96</v>
       </c>
     </row>
     <row r="11">
@@ -5023,76 +5023,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2580.161715518834</v>
+        <v>2580.161715518833</v>
       </c>
       <c r="C11" t="n">
-        <v>2126.14699002086</v>
+        <v>2126.146990020859</v>
       </c>
       <c r="D11" t="n">
-        <v>1711.662994324042</v>
+        <v>1711.662994324041</v>
       </c>
       <c r="E11" t="n">
         <v>1303.215227044376</v>
       </c>
       <c r="F11" t="n">
-        <v>894.2358041069907</v>
+        <v>894.2358041069906</v>
       </c>
       <c r="G11" t="n">
-        <v>492.3327682960357</v>
+        <v>492.3327682960356</v>
       </c>
       <c r="H11" t="n">
-        <v>140.9600000000001</v>
+        <v>140.96</v>
       </c>
       <c r="I11" t="n">
-        <v>216.5482970397705</v>
+        <v>216.5482970397704</v>
       </c>
       <c r="J11" t="n">
         <v>1101.367131735718</v>
       </c>
       <c r="K11" t="n">
-        <v>2550.716641651426</v>
+        <v>2270.648739919985</v>
       </c>
       <c r="L11" t="n">
-        <v>3681.051378010449</v>
+        <v>3188.241463236568</v>
       </c>
       <c r="M11" t="n">
-        <v>4163.230577523952</v>
+        <v>3670.420662750071</v>
       </c>
       <c r="N11" t="n">
-        <v>4728.273641396624</v>
+        <v>4235.463726622743</v>
       </c>
       <c r="O11" t="n">
-        <v>5638.428524337368</v>
+        <v>5145.618609563487</v>
       </c>
       <c r="P11" t="n">
-        <v>6474.295852434781</v>
+        <v>5981.4859376609</v>
       </c>
       <c r="Q11" t="n">
-        <v>6931.116362237003</v>
+        <v>7048</v>
       </c>
       <c r="R11" t="n">
-        <v>7048.000000000006</v>
+        <v>7048</v>
       </c>
       <c r="S11" t="n">
-        <v>6683.344625183184</v>
+        <v>6684.746993155883</v>
       </c>
       <c r="T11" t="n">
         <v>6118.11576243671</v>
       </c>
       <c r="U11" t="n">
-        <v>5462.811290515622</v>
+        <v>5462.811290515621</v>
       </c>
       <c r="V11" t="n">
-        <v>4826.598134791558</v>
+        <v>4826.598134791557</v>
       </c>
       <c r="W11" t="n">
-        <v>4181.77644188151</v>
+        <v>4181.776441881509</v>
       </c>
       <c r="X11" t="n">
-        <v>3583.511963638411</v>
+        <v>3583.51196363841</v>
       </c>
       <c r="Y11" t="n">
-        <v>3067.029708403253</v>
+        <v>3067.029708403252</v>
       </c>
     </row>
     <row r="12">
@@ -5117,16 +5117,16 @@
         <v>881.7120959500332</v>
       </c>
       <c r="G12" t="n">
-        <v>555.8565327448408</v>
+        <v>555.8565327448407</v>
       </c>
       <c r="H12" t="n">
-        <v>250.989987654688</v>
+        <v>250.9899876546879</v>
       </c>
       <c r="I12" t="n">
-        <v>140.9600000000001</v>
+        <v>140.96</v>
       </c>
       <c r="J12" t="n">
-        <v>558.8475295149218</v>
+        <v>558.8475295149217</v>
       </c>
       <c r="K12" t="n">
         <v>1250.415257213079</v>
@@ -5181,76 +5181,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>239.3480243885945</v>
+        <v>140.96</v>
       </c>
       <c r="C13" t="n">
-        <v>239.3480243885945</v>
+        <v>140.96</v>
       </c>
       <c r="D13" t="n">
-        <v>239.3480243885945</v>
+        <v>140.96</v>
       </c>
       <c r="E13" t="n">
-        <v>239.3480243885945</v>
+        <v>140.96</v>
       </c>
       <c r="F13" t="n">
-        <v>239.3480243885945</v>
+        <v>140.96</v>
       </c>
       <c r="G13" t="n">
-        <v>239.3480243885945</v>
+        <v>140.96</v>
       </c>
       <c r="H13" t="n">
-        <v>239.3480243885945</v>
+        <v>140.96</v>
       </c>
       <c r="I13" t="n">
-        <v>140.9600000000001</v>
+        <v>140.96</v>
       </c>
       <c r="J13" t="n">
-        <v>290.4466099967137</v>
+        <v>290.4466099967136</v>
       </c>
       <c r="K13" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="L13" t="n">
-        <v>307.8416045893197</v>
+        <v>275.6639043471516</v>
       </c>
       <c r="M13" t="n">
-        <v>307.8416045893197</v>
+        <v>166.9289267754419</v>
       </c>
       <c r="N13" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="O13" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="P13" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="Q13" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="R13" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="S13" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="T13" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="U13" t="n">
-        <v>239.3480243885945</v>
+        <v>140.96</v>
       </c>
       <c r="V13" t="n">
-        <v>239.3480243885945</v>
+        <v>140.96</v>
       </c>
       <c r="W13" t="n">
-        <v>239.3480243885945</v>
+        <v>140.96</v>
       </c>
       <c r="X13" t="n">
-        <v>239.3480243885945</v>
+        <v>140.96</v>
       </c>
       <c r="Y13" t="n">
-        <v>239.3480243885945</v>
+        <v>140.96</v>
       </c>
     </row>
     <row r="14">
@@ -5260,76 +5260,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2580.161715518834</v>
+        <v>2580.161715518833</v>
       </c>
       <c r="C14" t="n">
-        <v>2126.14699002086</v>
+        <v>2126.146990020859</v>
       </c>
       <c r="D14" t="n">
-        <v>1711.662994324042</v>
+        <v>1711.662994324041</v>
       </c>
       <c r="E14" t="n">
         <v>1303.215227044376</v>
       </c>
       <c r="F14" t="n">
-        <v>894.2358041069907</v>
+        <v>894.2358041069906</v>
       </c>
       <c r="G14" t="n">
-        <v>492.3327682960357</v>
+        <v>492.3327682960356</v>
       </c>
       <c r="H14" t="n">
-        <v>140.9600000000001</v>
+        <v>140.96</v>
       </c>
       <c r="I14" t="n">
-        <v>216.5482970397705</v>
+        <v>216.5482970397704</v>
       </c>
       <c r="J14" t="n">
-        <v>675.3654425154227</v>
+        <v>675.3654425154225</v>
       </c>
       <c r="K14" t="n">
-        <v>2124.71495243113</v>
+        <v>1415.008586083262</v>
       </c>
       <c r="L14" t="n">
-        <v>3071.357825473571</v>
+        <v>2332.601309399844</v>
       </c>
       <c r="M14" t="n">
-        <v>3553.537024987074</v>
+        <v>3864.448844008177</v>
       </c>
       <c r="N14" t="n">
-        <v>4118.580088859746</v>
+        <v>4429.491907880849</v>
       </c>
       <c r="O14" t="n">
-        <v>5028.73497180049</v>
+        <v>5339.646790821593</v>
       </c>
       <c r="P14" t="n">
-        <v>5864.602299897903</v>
+        <v>6474.295852434775</v>
       </c>
       <c r="Q14" t="n">
-        <v>6931.116362237003</v>
+        <v>6931.116362236997</v>
       </c>
       <c r="R14" t="n">
-        <v>7048.000000000006</v>
+        <v>7048</v>
       </c>
       <c r="S14" t="n">
-        <v>6683.344625183184</v>
+        <v>6684.746993155883</v>
       </c>
       <c r="T14" t="n">
-        <v>6116.713394464011</v>
+        <v>6118.11576243671</v>
       </c>
       <c r="U14" t="n">
-        <v>5462.811290515622</v>
+        <v>5462.811290515621</v>
       </c>
       <c r="V14" t="n">
-        <v>4826.598134791558</v>
+        <v>4826.598134791557</v>
       </c>
       <c r="W14" t="n">
-        <v>4181.77644188151</v>
+        <v>4181.776441881509</v>
       </c>
       <c r="X14" t="n">
-        <v>3583.511963638411</v>
+        <v>3583.51196363841</v>
       </c>
       <c r="Y14" t="n">
-        <v>3067.029708403253</v>
+        <v>3067.029708403252</v>
       </c>
     </row>
     <row r="15">
@@ -5354,16 +5354,16 @@
         <v>881.7120959500332</v>
       </c>
       <c r="G15" t="n">
-        <v>555.8565327448408</v>
+        <v>555.8565327448407</v>
       </c>
       <c r="H15" t="n">
-        <v>250.989987654688</v>
+        <v>250.9899876546879</v>
       </c>
       <c r="I15" t="n">
-        <v>140.9600000000001</v>
+        <v>140.96</v>
       </c>
       <c r="J15" t="n">
-        <v>558.8475295149218</v>
+        <v>558.8475295149217</v>
       </c>
       <c r="K15" t="n">
         <v>1250.415257213079</v>
@@ -5418,76 +5418,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>140.9600000000001</v>
+        <v>140.96</v>
       </c>
       <c r="C16" t="n">
-        <v>140.9600000000001</v>
+        <v>140.96</v>
       </c>
       <c r="D16" t="n">
-        <v>140.9600000000001</v>
+        <v>140.96</v>
       </c>
       <c r="E16" t="n">
-        <v>140.9600000000001</v>
+        <v>140.96</v>
       </c>
       <c r="F16" t="n">
-        <v>140.9600000000001</v>
+        <v>140.96</v>
       </c>
       <c r="G16" t="n">
-        <v>140.9600000000001</v>
+        <v>140.96</v>
       </c>
       <c r="H16" t="n">
-        <v>140.9600000000001</v>
+        <v>140.96</v>
       </c>
       <c r="I16" t="n">
-        <v>140.9600000000001</v>
+        <v>140.96</v>
       </c>
       <c r="J16" t="n">
-        <v>290.4466099967137</v>
+        <v>290.4466099967136</v>
       </c>
       <c r="K16" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="L16" t="n">
-        <v>307.8416045893197</v>
+        <v>275.6639043471516</v>
       </c>
       <c r="M16" t="n">
-        <v>307.8416045893197</v>
+        <v>166.9289267754419</v>
       </c>
       <c r="N16" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="O16" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="P16" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="Q16" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="R16" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="S16" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="T16" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="U16" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="V16" t="n">
-        <v>140.9600000000001</v>
+        <v>140.96</v>
       </c>
       <c r="W16" t="n">
-        <v>140.9600000000001</v>
+        <v>140.96</v>
       </c>
       <c r="X16" t="n">
-        <v>140.9600000000001</v>
+        <v>140.96</v>
       </c>
       <c r="Y16" t="n">
-        <v>140.9600000000001</v>
+        <v>140.96</v>
       </c>
     </row>
     <row r="17">
@@ -5497,76 +5497,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2580.161715518834</v>
+        <v>2580.161715518833</v>
       </c>
       <c r="C17" t="n">
-        <v>2126.14699002086</v>
+        <v>2126.146990020859</v>
       </c>
       <c r="D17" t="n">
-        <v>1711.662994324042</v>
+        <v>1711.662994324041</v>
       </c>
       <c r="E17" t="n">
         <v>1303.215227044376</v>
       </c>
       <c r="F17" t="n">
-        <v>894.2358041069907</v>
+        <v>894.2358041069906</v>
       </c>
       <c r="G17" t="n">
-        <v>492.3327682960357</v>
+        <v>492.3327682960356</v>
       </c>
       <c r="H17" t="n">
-        <v>140.9600000000001</v>
+        <v>140.96</v>
       </c>
       <c r="I17" t="n">
-        <v>216.5482970397705</v>
+        <v>140.96</v>
       </c>
       <c r="J17" t="n">
-        <v>675.3654425154227</v>
+        <v>599.7771454756521</v>
       </c>
       <c r="K17" t="n">
-        <v>1415.008586083262</v>
+        <v>1339.420289043491</v>
       </c>
       <c r="L17" t="n">
-        <v>3071.357825473571</v>
+        <v>3083.800289043491</v>
       </c>
       <c r="M17" t="n">
-        <v>3553.537024987074</v>
+        <v>3565.979488556994</v>
       </c>
       <c r="N17" t="n">
-        <v>4118.580088859746</v>
+        <v>4131.022552429667</v>
       </c>
       <c r="O17" t="n">
-        <v>5028.73497180049</v>
+        <v>5041.17743537041</v>
       </c>
       <c r="P17" t="n">
-        <v>5864.602299897903</v>
+        <v>6591.179490197778</v>
       </c>
       <c r="Q17" t="n">
-        <v>6931.116362237003</v>
+        <v>7048</v>
       </c>
       <c r="R17" t="n">
-        <v>7048.000000000006</v>
+        <v>7048</v>
       </c>
       <c r="S17" t="n">
-        <v>6684.746993155883</v>
+        <v>6683.344625183177</v>
       </c>
       <c r="T17" t="n">
-        <v>6118.11576243671</v>
+        <v>6116.713394464005</v>
       </c>
       <c r="U17" t="n">
-        <v>5462.811290515622</v>
+        <v>5461.408922542916</v>
       </c>
       <c r="V17" t="n">
-        <v>4826.598134791558</v>
+        <v>4825.195766818852</v>
       </c>
       <c r="W17" t="n">
-        <v>4181.77644188151</v>
+        <v>4180.374073908803</v>
       </c>
       <c r="X17" t="n">
-        <v>3583.511963638411</v>
+        <v>3583.51196363841</v>
       </c>
       <c r="Y17" t="n">
-        <v>3067.029708403253</v>
+        <v>3067.029708403252</v>
       </c>
     </row>
     <row r="18">
@@ -5591,16 +5591,16 @@
         <v>881.7120959500332</v>
       </c>
       <c r="G18" t="n">
-        <v>555.8565327448408</v>
+        <v>555.8565327448407</v>
       </c>
       <c r="H18" t="n">
-        <v>250.989987654688</v>
+        <v>250.9899876546879</v>
       </c>
       <c r="I18" t="n">
-        <v>140.9600000000001</v>
+        <v>140.96</v>
       </c>
       <c r="J18" t="n">
-        <v>558.8475295149218</v>
+        <v>558.8475295149217</v>
       </c>
       <c r="K18" t="n">
         <v>1250.415257213079</v>
@@ -5624,7 +5624,7 @@
         <v>5925.707874249716</v>
       </c>
       <c r="R18" t="n">
-        <v>5569.989306372909</v>
+        <v>5571.538498249245</v>
       </c>
       <c r="S18" t="n">
         <v>5159.222422432123</v>
@@ -5655,76 +5655,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="C19" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="D19" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="E19" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="F19" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="G19" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="H19" t="n">
-        <v>239.3480243885945</v>
+        <v>140.96</v>
       </c>
       <c r="I19" t="n">
-        <v>140.9600000000001</v>
+        <v>140.96</v>
       </c>
       <c r="J19" t="n">
-        <v>290.4466099967137</v>
+        <v>290.4466099967136</v>
       </c>
       <c r="K19" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="L19" t="n">
-        <v>307.8416045893197</v>
+        <v>275.6639043471516</v>
       </c>
       <c r="M19" t="n">
-        <v>307.8416045893197</v>
+        <v>166.9289267754419</v>
       </c>
       <c r="N19" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="O19" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="P19" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="Q19" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="R19" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="S19" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="T19" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="U19" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="V19" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="W19" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="X19" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="Y19" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
     </row>
     <row r="20">
@@ -5734,76 +5734,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2578.759347546135</v>
+        <v>2580.161715518833</v>
       </c>
       <c r="C20" t="n">
-        <v>2124.744622048162</v>
+        <v>2126.146990020859</v>
       </c>
       <c r="D20" t="n">
-        <v>1710.260626351343</v>
+        <v>1711.662994324041</v>
       </c>
       <c r="E20" t="n">
-        <v>1301.812859071678</v>
+        <v>1303.215227044376</v>
       </c>
       <c r="F20" t="n">
-        <v>892.8334361342926</v>
+        <v>894.2358041069906</v>
       </c>
       <c r="G20" t="n">
-        <v>492.3327682960357</v>
+        <v>492.3327682960356</v>
       </c>
       <c r="H20" t="n">
-        <v>140.9600000000001</v>
+        <v>140.96</v>
       </c>
       <c r="I20" t="n">
-        <v>216.5482970397705</v>
+        <v>140.96</v>
       </c>
       <c r="J20" t="n">
-        <v>675.3654425154227</v>
+        <v>599.7771454756521</v>
       </c>
       <c r="K20" t="n">
-        <v>2124.71495243113</v>
+        <v>2049.12665539136</v>
       </c>
       <c r="L20" t="n">
-        <v>3681.051378010449</v>
+        <v>2966.719378707943</v>
       </c>
       <c r="M20" t="n">
-        <v>4163.230577523952</v>
+        <v>4280.114215286949</v>
       </c>
       <c r="N20" t="n">
-        <v>4728.273641396624</v>
+        <v>4845.157279159621</v>
       </c>
       <c r="O20" t="n">
-        <v>5638.428524337368</v>
+        <v>5755.312162100365</v>
       </c>
       <c r="P20" t="n">
-        <v>6474.295852434781</v>
+        <v>6591.179490197778</v>
       </c>
       <c r="Q20" t="n">
-        <v>6931.116362237003</v>
+        <v>7048</v>
       </c>
       <c r="R20" t="n">
-        <v>7048.000000000006</v>
+        <v>7048</v>
       </c>
       <c r="S20" t="n">
-        <v>6683.344625183184</v>
+        <v>6684.746993155883</v>
       </c>
       <c r="T20" t="n">
-        <v>6116.713394464011</v>
+        <v>6118.11576243671</v>
       </c>
       <c r="U20" t="n">
-        <v>5461.408922542923</v>
+        <v>5462.811290515621</v>
       </c>
       <c r="V20" t="n">
-        <v>4825.195766818859</v>
+        <v>4826.598134791557</v>
       </c>
       <c r="W20" t="n">
-        <v>4180.374073908811</v>
+        <v>4181.776441881509</v>
       </c>
       <c r="X20" t="n">
-        <v>3582.109595665712</v>
+        <v>3583.51196363841</v>
       </c>
       <c r="Y20" t="n">
-        <v>3065.627340430554</v>
+        <v>3067.029708403252</v>
       </c>
     </row>
     <row r="21">
@@ -5828,16 +5828,16 @@
         <v>881.7120959500332</v>
       </c>
       <c r="G21" t="n">
-        <v>555.8565327448408</v>
+        <v>555.8565327448407</v>
       </c>
       <c r="H21" t="n">
-        <v>250.989987654688</v>
+        <v>250.9899876546879</v>
       </c>
       <c r="I21" t="n">
-        <v>140.9600000000001</v>
+        <v>140.96</v>
       </c>
       <c r="J21" t="n">
-        <v>558.8475295149218</v>
+        <v>558.8475295149217</v>
       </c>
       <c r="K21" t="n">
         <v>1250.415257213079</v>
@@ -5861,7 +5861,7 @@
         <v>5925.707874249716</v>
       </c>
       <c r="R21" t="n">
-        <v>5571.538498249245</v>
+        <v>5569.989306372909</v>
       </c>
       <c r="S21" t="n">
         <v>5159.222422432123</v>
@@ -5892,76 +5892,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="C22" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="D22" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="E22" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="F22" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="G22" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="H22" t="n">
-        <v>239.3480243885945</v>
+        <v>140.96</v>
       </c>
       <c r="I22" t="n">
-        <v>140.9600000000001</v>
+        <v>140.96</v>
       </c>
       <c r="J22" t="n">
-        <v>290.4466099967137</v>
+        <v>290.4466099967136</v>
       </c>
       <c r="K22" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="L22" t="n">
-        <v>307.8416045893197</v>
+        <v>275.6639043471516</v>
       </c>
       <c r="M22" t="n">
-        <v>307.8416045893197</v>
+        <v>166.9289267754419</v>
       </c>
       <c r="N22" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="O22" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="P22" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="Q22" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="R22" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="S22" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="T22" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="U22" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="V22" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="W22" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="X22" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="Y22" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
     </row>
     <row r="23">
@@ -5971,76 +5971,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2580.161715518834</v>
+        <v>2578.759347546128</v>
       </c>
       <c r="C23" t="n">
-        <v>2126.14699002086</v>
+        <v>2124.744622048154</v>
       </c>
       <c r="D23" t="n">
-        <v>1711.662994324042</v>
+        <v>1710.260626351336</v>
       </c>
       <c r="E23" t="n">
-        <v>1303.215227044376</v>
+        <v>1301.812859071671</v>
       </c>
       <c r="F23" t="n">
-        <v>894.2358041069907</v>
+        <v>892.8334361342853</v>
       </c>
       <c r="G23" t="n">
-        <v>492.3327682960357</v>
+        <v>490.9304003233303</v>
       </c>
       <c r="H23" t="n">
-        <v>140.9600000000001</v>
+        <v>140.96</v>
       </c>
       <c r="I23" t="n">
-        <v>216.5482970397705</v>
+        <v>140.96</v>
       </c>
       <c r="J23" t="n">
-        <v>675.3654425154227</v>
+        <v>599.7771454756521</v>
       </c>
       <c r="K23" t="n">
-        <v>1936.671378010448</v>
+        <v>1339.420289043491</v>
       </c>
       <c r="L23" t="n">
-        <v>3681.051378010449</v>
+        <v>2257.013012360075</v>
       </c>
       <c r="M23" t="n">
-        <v>4163.230577523952</v>
+        <v>3194.417427023049</v>
       </c>
       <c r="N23" t="n">
-        <v>4728.273641396624</v>
+        <v>4845.157279159621</v>
       </c>
       <c r="O23" t="n">
-        <v>5638.428524337368</v>
+        <v>5755.312162100365</v>
       </c>
       <c r="P23" t="n">
-        <v>6474.295852434781</v>
+        <v>6591.179490197778</v>
       </c>
       <c r="Q23" t="n">
-        <v>6931.116362237003</v>
+        <v>7048</v>
       </c>
       <c r="R23" t="n">
-        <v>7048.000000000006</v>
+        <v>7048</v>
       </c>
       <c r="S23" t="n">
-        <v>6684.746993155883</v>
+        <v>6683.344625183177</v>
       </c>
       <c r="T23" t="n">
-        <v>6118.11576243671</v>
+        <v>6116.713394464005</v>
       </c>
       <c r="U23" t="n">
-        <v>5462.811290515622</v>
+        <v>5461.408922542916</v>
       </c>
       <c r="V23" t="n">
-        <v>4826.598134791558</v>
+        <v>4825.195766818852</v>
       </c>
       <c r="W23" t="n">
-        <v>4181.77644188151</v>
+        <v>4180.374073908803</v>
       </c>
       <c r="X23" t="n">
-        <v>3583.511963638411</v>
+        <v>3582.109595665705</v>
       </c>
       <c r="Y23" t="n">
-        <v>3067.029708403253</v>
+        <v>3065.627340430547</v>
       </c>
     </row>
     <row r="24">
@@ -6065,16 +6065,16 @@
         <v>881.7120959500332</v>
       </c>
       <c r="G24" t="n">
-        <v>555.8565327448408</v>
+        <v>555.8565327448407</v>
       </c>
       <c r="H24" t="n">
-        <v>250.989987654688</v>
+        <v>250.9899876546879</v>
       </c>
       <c r="I24" t="n">
-        <v>140.9600000000001</v>
+        <v>140.96</v>
       </c>
       <c r="J24" t="n">
-        <v>558.8475295149218</v>
+        <v>558.8475295149217</v>
       </c>
       <c r="K24" t="n">
         <v>1250.415257213079</v>
@@ -6129,76 +6129,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="C25" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="D25" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="E25" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="F25" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="G25" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="H25" t="n">
-        <v>140.9600000000001</v>
+        <v>140.96</v>
       </c>
       <c r="I25" t="n">
-        <v>140.9600000000001</v>
+        <v>140.96</v>
       </c>
       <c r="J25" t="n">
-        <v>290.4466099967137</v>
+        <v>290.4466099967136</v>
       </c>
       <c r="K25" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="L25" t="n">
-        <v>307.8416045893197</v>
+        <v>275.6639043471516</v>
       </c>
       <c r="M25" t="n">
-        <v>307.8416045893197</v>
+        <v>166.9289267754419</v>
       </c>
       <c r="N25" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="O25" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="P25" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="Q25" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="R25" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="S25" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="T25" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="U25" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="V25" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="W25" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="X25" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="Y25" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
     </row>
     <row r="26">
@@ -6220,7 +6220,7 @@
         <v>1301.812859071671</v>
       </c>
       <c r="F26" t="n">
-        <v>894.2358041069906</v>
+        <v>892.8334361342853</v>
       </c>
       <c r="G26" t="n">
         <v>492.3327682960356</v>
@@ -6235,25 +6235,25 @@
         <v>675.3654425154225</v>
       </c>
       <c r="K26" t="n">
-        <v>2124.71495243113</v>
+        <v>1415.008586083262</v>
       </c>
       <c r="L26" t="n">
-        <v>3681.051378010443</v>
+        <v>3159.388586083262</v>
       </c>
       <c r="M26" t="n">
-        <v>4163.230577523946</v>
+        <v>3641.567785596765</v>
       </c>
       <c r="N26" t="n">
-        <v>4728.273641396618</v>
+        <v>4206.610849469437</v>
       </c>
       <c r="O26" t="n">
-        <v>5638.428524337362</v>
+        <v>5116.765732410181</v>
       </c>
       <c r="P26" t="n">
-        <v>6474.295852434775</v>
+        <v>6591.179490197778</v>
       </c>
       <c r="Q26" t="n">
-        <v>6931.116362236997</v>
+        <v>7048</v>
       </c>
       <c r="R26" t="n">
         <v>7048</v>
@@ -6396,34 +6396,34 @@
         <v>307.8416045893196</v>
       </c>
       <c r="L28" t="n">
-        <v>307.8416045893196</v>
+        <v>275.6639043471516</v>
       </c>
       <c r="M28" t="n">
-        <v>307.8416045893196</v>
+        <v>166.9289267754419</v>
       </c>
       <c r="N28" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="O28" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="P28" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="Q28" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="R28" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="S28" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="T28" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="U28" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="V28" t="n">
         <v>140.96</v>
@@ -6445,7 +6445,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2578.759347546128</v>
+        <v>2580.161715518833</v>
       </c>
       <c r="C29" t="n">
         <v>2126.146990020859</v>
@@ -6466,55 +6466,55 @@
         <v>140.96</v>
       </c>
       <c r="I29" t="n">
-        <v>216.5482970397704</v>
+        <v>140.96</v>
       </c>
       <c r="J29" t="n">
-        <v>675.3654425154225</v>
+        <v>599.7771454756521</v>
       </c>
       <c r="K29" t="n">
-        <v>2124.71495243113</v>
+        <v>1339.420289043491</v>
       </c>
       <c r="L29" t="n">
-        <v>3681.051378010443</v>
+        <v>2257.013012360075</v>
       </c>
       <c r="M29" t="n">
-        <v>4163.230577523946</v>
+        <v>2739.192211873577</v>
       </c>
       <c r="N29" t="n">
-        <v>4728.273641396618</v>
+        <v>3304.235275746249</v>
       </c>
       <c r="O29" t="n">
-        <v>5638.428524337362</v>
+        <v>5048.61527574625</v>
       </c>
       <c r="P29" t="n">
-        <v>6474.295852434775</v>
+        <v>6591.179490197778</v>
       </c>
       <c r="Q29" t="n">
-        <v>6931.116362236997</v>
+        <v>7048</v>
       </c>
       <c r="R29" t="n">
         <v>7048</v>
       </c>
       <c r="S29" t="n">
-        <v>6683.344625183177</v>
+        <v>6684.746993155883</v>
       </c>
       <c r="T29" t="n">
-        <v>6116.713394464005</v>
+        <v>6118.11576243671</v>
       </c>
       <c r="U29" t="n">
-        <v>5461.408922542916</v>
+        <v>5462.811290515621</v>
       </c>
       <c r="V29" t="n">
-        <v>4825.195766818852</v>
+        <v>4826.598134791557</v>
       </c>
       <c r="W29" t="n">
-        <v>4180.374073908803</v>
+        <v>4181.776441881509</v>
       </c>
       <c r="X29" t="n">
-        <v>3582.109595665705</v>
+        <v>3583.51196363841</v>
       </c>
       <c r="Y29" t="n">
-        <v>3065.627340430547</v>
+        <v>3067.029708403252</v>
       </c>
     </row>
     <row r="30">
@@ -6603,25 +6603,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>239.3480243885944</v>
+        <v>140.96</v>
       </c>
       <c r="C31" t="n">
-        <v>239.3480243885944</v>
+        <v>140.96</v>
       </c>
       <c r="D31" t="n">
-        <v>239.3480243885944</v>
+        <v>140.96</v>
       </c>
       <c r="E31" t="n">
-        <v>239.3480243885944</v>
+        <v>140.96</v>
       </c>
       <c r="F31" t="n">
-        <v>239.3480243885944</v>
+        <v>140.96</v>
       </c>
       <c r="G31" t="n">
-        <v>239.3480243885944</v>
+        <v>140.96</v>
       </c>
       <c r="H31" t="n">
-        <v>239.3480243885944</v>
+        <v>140.96</v>
       </c>
       <c r="I31" t="n">
         <v>140.96</v>
@@ -6633,46 +6633,46 @@
         <v>307.8416045893196</v>
       </c>
       <c r="L31" t="n">
-        <v>307.8416045893196</v>
+        <v>275.6639043471516</v>
       </c>
       <c r="M31" t="n">
-        <v>307.8416045893196</v>
+        <v>166.9289267754419</v>
       </c>
       <c r="N31" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="O31" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="P31" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="Q31" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="R31" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="S31" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="T31" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="U31" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="V31" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="W31" t="n">
-        <v>239.3480243885944</v>
+        <v>140.96</v>
       </c>
       <c r="X31" t="n">
-        <v>239.3480243885944</v>
+        <v>140.96</v>
       </c>
       <c r="Y31" t="n">
-        <v>239.3480243885944</v>
+        <v>140.96</v>
       </c>
     </row>
     <row r="32">
@@ -6691,10 +6691,10 @@
         <v>1710.260626351336</v>
       </c>
       <c r="E32" t="n">
-        <v>1301.812859071671</v>
+        <v>1303.215227044376</v>
       </c>
       <c r="F32" t="n">
-        <v>892.8334361342853</v>
+        <v>894.2358041069906</v>
       </c>
       <c r="G32" t="n">
         <v>492.3327682960356</v>
@@ -6706,28 +6706,28 @@
         <v>216.5482970397704</v>
       </c>
       <c r="J32" t="n">
-        <v>675.3654425154225</v>
+        <v>1101.367131735718</v>
       </c>
       <c r="K32" t="n">
-        <v>2124.71495243113</v>
+        <v>1841.010275303557</v>
       </c>
       <c r="L32" t="n">
-        <v>3681.051378010443</v>
+        <v>2758.60299862014</v>
       </c>
       <c r="M32" t="n">
-        <v>4163.230577523946</v>
+        <v>3240.782198133642</v>
       </c>
       <c r="N32" t="n">
-        <v>4728.273641396618</v>
+        <v>4845.157279159621</v>
       </c>
       <c r="O32" t="n">
-        <v>5638.428524337362</v>
+        <v>5755.312162100365</v>
       </c>
       <c r="P32" t="n">
-        <v>6474.295852434775</v>
+        <v>6591.179490197778</v>
       </c>
       <c r="Q32" t="n">
-        <v>6931.116362236997</v>
+        <v>7048</v>
       </c>
       <c r="R32" t="n">
         <v>7048</v>
@@ -6840,25 +6840,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>155.5035375626275</v>
+        <v>140.96</v>
       </c>
       <c r="C34" t="n">
-        <v>155.5035375626275</v>
+        <v>140.96</v>
       </c>
       <c r="D34" t="n">
-        <v>155.5035375626275</v>
+        <v>140.96</v>
       </c>
       <c r="E34" t="n">
-        <v>155.5035375626275</v>
+        <v>140.96</v>
       </c>
       <c r="F34" t="n">
-        <v>155.5035375626275</v>
+        <v>140.96</v>
       </c>
       <c r="G34" t="n">
-        <v>155.5035375626275</v>
+        <v>140.96</v>
       </c>
       <c r="H34" t="n">
-        <v>155.5035375626275</v>
+        <v>140.96</v>
       </c>
       <c r="I34" t="n">
         <v>140.96</v>
@@ -6870,46 +6870,46 @@
         <v>307.8416045893196</v>
       </c>
       <c r="L34" t="n">
-        <v>307.8416045893196</v>
+        <v>275.6639043471516</v>
       </c>
       <c r="M34" t="n">
-        <v>307.8416045893196</v>
+        <v>166.9289267754419</v>
       </c>
       <c r="N34" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="O34" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="P34" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="Q34" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="R34" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="S34" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="T34" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="U34" t="n">
-        <v>155.5035375626275</v>
+        <v>140.96</v>
       </c>
       <c r="V34" t="n">
-        <v>155.5035375626275</v>
+        <v>140.96</v>
       </c>
       <c r="W34" t="n">
-        <v>155.5035375626275</v>
+        <v>140.96</v>
       </c>
       <c r="X34" t="n">
-        <v>155.5035375626275</v>
+        <v>140.96</v>
       </c>
       <c r="Y34" t="n">
-        <v>155.5035375626275</v>
+        <v>140.96</v>
       </c>
     </row>
     <row r="35">
@@ -6940,31 +6940,31 @@
         <v>140.96</v>
       </c>
       <c r="I35" t="n">
-        <v>216.5482970397704</v>
+        <v>140.96</v>
       </c>
       <c r="J35" t="n">
-        <v>675.3654425154225</v>
+        <v>599.7771454756521</v>
       </c>
       <c r="K35" t="n">
-        <v>2124.71495243113</v>
+        <v>1339.420289043491</v>
       </c>
       <c r="L35" t="n">
-        <v>3681.051378010443</v>
+        <v>2257.013012360075</v>
       </c>
       <c r="M35" t="n">
-        <v>4163.230577523946</v>
+        <v>3670.420662750071</v>
       </c>
       <c r="N35" t="n">
-        <v>4728.273641396618</v>
+        <v>4235.463726622743</v>
       </c>
       <c r="O35" t="n">
-        <v>5638.428524337362</v>
+        <v>5145.618609563487</v>
       </c>
       <c r="P35" t="n">
-        <v>6474.295852434775</v>
+        <v>5981.4859376609</v>
       </c>
       <c r="Q35" t="n">
-        <v>6931.116362236997</v>
+        <v>7048</v>
       </c>
       <c r="R35" t="n">
         <v>7048</v>
@@ -6985,10 +6985,10 @@
         <v>4180.374073908803</v>
       </c>
       <c r="X35" t="n">
-        <v>3582.109595665705</v>
+        <v>3583.51196363841</v>
       </c>
       <c r="Y35" t="n">
-        <v>3065.627340430547</v>
+        <v>3067.029708403252</v>
       </c>
     </row>
     <row r="36">
@@ -7049,16 +7049,16 @@
         <v>5569.989306372909</v>
       </c>
       <c r="S36" t="n">
-        <v>5157.673230555786</v>
+        <v>5159.222422432123</v>
       </c>
       <c r="T36" t="n">
-        <v>4761.01548219428</v>
+        <v>4762.564674070616</v>
       </c>
       <c r="U36" t="n">
-        <v>4356.971427166837</v>
+        <v>4358.520619043174</v>
       </c>
       <c r="V36" t="n">
-        <v>3938.273783539039</v>
+        <v>3939.822975415375</v>
       </c>
       <c r="W36" t="n">
         <v>3503.082427021609</v>
@@ -7107,37 +7107,37 @@
         <v>307.8416045893196</v>
       </c>
       <c r="L37" t="n">
-        <v>307.8416045893196</v>
+        <v>275.6639043471516</v>
       </c>
       <c r="M37" t="n">
-        <v>307.8416045893196</v>
+        <v>166.9289267754419</v>
       </c>
       <c r="N37" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="O37" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="P37" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="Q37" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="R37" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="S37" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="T37" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="U37" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="V37" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="W37" t="n">
         <v>140.96</v>
@@ -7180,22 +7180,22 @@
         <v>216.5482970397704</v>
       </c>
       <c r="J38" t="n">
-        <v>675.3654425154225</v>
+        <v>1101.367131735718</v>
       </c>
       <c r="K38" t="n">
-        <v>1936.671378010443</v>
+        <v>1841.010275303557</v>
       </c>
       <c r="L38" t="n">
-        <v>3681.051378010443</v>
+        <v>2758.60299862014</v>
       </c>
       <c r="M38" t="n">
-        <v>4163.230577523946</v>
+        <v>3240.782198133642</v>
       </c>
       <c r="N38" t="n">
-        <v>4728.273641396618</v>
+        <v>3866.401488049235</v>
       </c>
       <c r="O38" t="n">
-        <v>5638.428524337362</v>
+        <v>4776.556370989979</v>
       </c>
       <c r="P38" t="n">
         <v>6474.295852434775</v>
@@ -7216,16 +7216,16 @@
         <v>5461.408922542916</v>
       </c>
       <c r="V38" t="n">
-        <v>4825.195766818852</v>
+        <v>4826.598134791557</v>
       </c>
       <c r="W38" t="n">
-        <v>4180.374073908803</v>
+        <v>4181.776441881509</v>
       </c>
       <c r="X38" t="n">
-        <v>3582.109595665705</v>
+        <v>3583.51196363841</v>
       </c>
       <c r="Y38" t="n">
-        <v>3065.627340430547</v>
+        <v>3067.029708403252</v>
       </c>
     </row>
     <row r="39">
@@ -7283,19 +7283,19 @@
         <v>5925.707874249716</v>
       </c>
       <c r="R39" t="n">
-        <v>5569.989306372909</v>
+        <v>5571.538498249245</v>
       </c>
       <c r="S39" t="n">
-        <v>5157.673230555786</v>
+        <v>5159.222422432123</v>
       </c>
       <c r="T39" t="n">
-        <v>4761.01548219428</v>
+        <v>4762.564674070616</v>
       </c>
       <c r="U39" t="n">
-        <v>4356.971427166837</v>
+        <v>4358.520619043174</v>
       </c>
       <c r="V39" t="n">
-        <v>3938.273783539039</v>
+        <v>3939.822975415375</v>
       </c>
       <c r="W39" t="n">
         <v>3503.082427021609</v>
@@ -7314,13 +7314,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="C40" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="D40" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="E40" t="n">
         <v>140.96</v>
@@ -7344,46 +7344,46 @@
         <v>307.8416045893196</v>
       </c>
       <c r="L40" t="n">
-        <v>307.8416045893196</v>
+        <v>275.6639043471516</v>
       </c>
       <c r="M40" t="n">
-        <v>307.8416045893196</v>
+        <v>166.9289267754419</v>
       </c>
       <c r="N40" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="O40" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="P40" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="Q40" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="R40" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="S40" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="T40" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="U40" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="V40" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="W40" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="X40" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="Y40" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
     </row>
     <row r="41">
@@ -7393,7 +7393,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2578.759347546128</v>
+        <v>2580.161715518833</v>
       </c>
       <c r="C41" t="n">
         <v>2126.146990020859</v>
@@ -7414,28 +7414,28 @@
         <v>140.96</v>
       </c>
       <c r="I41" t="n">
-        <v>216.5482970397704</v>
+        <v>140.96</v>
       </c>
       <c r="J41" t="n">
-        <v>675.3654425154225</v>
+        <v>599.7771454756521</v>
       </c>
       <c r="K41" t="n">
-        <v>2124.71495243113</v>
+        <v>1339.420289043491</v>
       </c>
       <c r="L41" t="n">
-        <v>3681.051378010443</v>
+        <v>3071.357825473565</v>
       </c>
       <c r="M41" t="n">
-        <v>4163.230577523946</v>
+        <v>3553.537024987068</v>
       </c>
       <c r="N41" t="n">
-        <v>4728.273641396618</v>
+        <v>4118.58008885974</v>
       </c>
       <c r="O41" t="n">
-        <v>5638.428524337362</v>
+        <v>5028.734971800483</v>
       </c>
       <c r="P41" t="n">
-        <v>6474.295852434775</v>
+        <v>5864.602299897897</v>
       </c>
       <c r="Q41" t="n">
         <v>6931.116362236997</v>
@@ -7444,25 +7444,25 @@
         <v>7048</v>
       </c>
       <c r="S41" t="n">
-        <v>6683.344625183177</v>
+        <v>6684.746993155883</v>
       </c>
       <c r="T41" t="n">
-        <v>6116.713394464005</v>
+        <v>6118.11576243671</v>
       </c>
       <c r="U41" t="n">
-        <v>5461.408922542916</v>
+        <v>5462.811290515621</v>
       </c>
       <c r="V41" t="n">
-        <v>4825.195766818852</v>
+        <v>4826.598134791557</v>
       </c>
       <c r="W41" t="n">
-        <v>4180.374073908803</v>
+        <v>4181.776441881509</v>
       </c>
       <c r="X41" t="n">
-        <v>3582.109595665705</v>
+        <v>3583.51196363841</v>
       </c>
       <c r="Y41" t="n">
-        <v>3065.627340430547</v>
+        <v>3067.029708403252</v>
       </c>
     </row>
     <row r="42">
@@ -7523,16 +7523,16 @@
         <v>5569.989306372909</v>
       </c>
       <c r="S42" t="n">
-        <v>5157.673230555786</v>
+        <v>5159.222422432123</v>
       </c>
       <c r="T42" t="n">
-        <v>4761.01548219428</v>
+        <v>4762.564674070616</v>
       </c>
       <c r="U42" t="n">
-        <v>4356.971427166837</v>
+        <v>4358.520619043174</v>
       </c>
       <c r="V42" t="n">
-        <v>3938.273783539039</v>
+        <v>3939.822975415375</v>
       </c>
       <c r="W42" t="n">
         <v>3503.082427021609</v>
@@ -7551,25 +7551,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="C43" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="D43" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="E43" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="F43" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="G43" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="H43" t="n">
-        <v>239.3480243885944</v>
+        <v>140.96</v>
       </c>
       <c r="I43" t="n">
         <v>140.96</v>
@@ -7581,46 +7581,46 @@
         <v>307.8416045893196</v>
       </c>
       <c r="L43" t="n">
-        <v>307.8416045893196</v>
+        <v>275.6639043471516</v>
       </c>
       <c r="M43" t="n">
-        <v>307.8416045893196</v>
+        <v>166.9289267754419</v>
       </c>
       <c r="N43" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="O43" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="P43" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="Q43" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="R43" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="S43" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="T43" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="U43" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="V43" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="W43" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="X43" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="Y43" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
     </row>
     <row r="44">
@@ -7630,76 +7630,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2580.161715518833</v>
+        <v>2578.759347546128</v>
       </c>
       <c r="C44" t="n">
-        <v>2126.146990020859</v>
+        <v>2124.744622048154</v>
       </c>
       <c r="D44" t="n">
-        <v>1711.662994324041</v>
+        <v>1710.260626351336</v>
       </c>
       <c r="E44" t="n">
-        <v>1303.215227044376</v>
+        <v>1301.812859071671</v>
       </c>
       <c r="F44" t="n">
-        <v>894.2358041069906</v>
+        <v>892.8334361342853</v>
       </c>
       <c r="G44" t="n">
-        <v>492.3327682960356</v>
+        <v>490.9304003233303</v>
       </c>
       <c r="H44" t="n">
         <v>140.96</v>
       </c>
       <c r="I44" t="n">
-        <v>216.5482970397704</v>
+        <v>140.96</v>
       </c>
       <c r="J44" t="n">
-        <v>675.3654425154225</v>
+        <v>599.7771454756521</v>
       </c>
       <c r="K44" t="n">
-        <v>2124.71495243113</v>
+        <v>1339.420289043491</v>
       </c>
       <c r="L44" t="n">
-        <v>3681.051378010445</v>
+        <v>2257.013012360075</v>
       </c>
       <c r="M44" t="n">
-        <v>4163.230577523947</v>
+        <v>3077.533789260046</v>
       </c>
       <c r="N44" t="n">
-        <v>4728.273641396619</v>
+        <v>4728.273641396618</v>
       </c>
       <c r="O44" t="n">
-        <v>5638.428524337363</v>
+        <v>5638.428524337362</v>
       </c>
       <c r="P44" t="n">
-        <v>6474.295852434777</v>
+        <v>6474.295852434775</v>
       </c>
       <c r="Q44" t="n">
-        <v>6931.116362236999</v>
+        <v>6931.116362236997</v>
       </c>
       <c r="R44" t="n">
-        <v>7048.000000000002</v>
+        <v>7048</v>
       </c>
       <c r="S44" t="n">
-        <v>6684.746993155883</v>
+        <v>6683.344625183177</v>
       </c>
       <c r="T44" t="n">
-        <v>6118.11576243671</v>
+        <v>6116.713394464005</v>
       </c>
       <c r="U44" t="n">
-        <v>5462.811290515621</v>
+        <v>5461.408922542916</v>
       </c>
       <c r="V44" t="n">
-        <v>4826.598134791557</v>
+        <v>4825.195766818852</v>
       </c>
       <c r="W44" t="n">
-        <v>4181.776441881509</v>
+        <v>4180.374073908803</v>
       </c>
       <c r="X44" t="n">
-        <v>3583.51196363841</v>
+        <v>3582.109595665705</v>
       </c>
       <c r="Y44" t="n">
-        <v>3067.029708403252</v>
+        <v>3065.627340430547</v>
       </c>
     </row>
     <row r="45">
@@ -7760,16 +7760,16 @@
         <v>5569.989306372909</v>
       </c>
       <c r="S45" t="n">
-        <v>5157.673230555786</v>
+        <v>5159.222422432123</v>
       </c>
       <c r="T45" t="n">
-        <v>4761.01548219428</v>
+        <v>4762.564674070616</v>
       </c>
       <c r="U45" t="n">
-        <v>4356.971427166837</v>
+        <v>4358.520619043174</v>
       </c>
       <c r="V45" t="n">
-        <v>3938.273783539039</v>
+        <v>3939.822975415375</v>
       </c>
       <c r="W45" t="n">
         <v>3503.082427021609</v>
@@ -7788,22 +7788,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="C46" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="D46" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="E46" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="F46" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="G46" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="H46" t="n">
         <v>140.96</v>
@@ -7818,46 +7818,46 @@
         <v>307.8416045893196</v>
       </c>
       <c r="L46" t="n">
-        <v>307.8416045893196</v>
+        <v>275.6639043471516</v>
       </c>
       <c r="M46" t="n">
-        <v>307.8416045893196</v>
+        <v>166.9289267754419</v>
       </c>
       <c r="N46" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="O46" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="P46" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="Q46" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="R46" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="S46" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="T46" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="U46" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="V46" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="W46" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="X46" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="Y46" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
     </row>
   </sheetData>
@@ -7981,16 +7981,16 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>114.3520667231206</v>
+        <v>120.6470157237802</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>430.3047365861567</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>207.1786869636871</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -7999,13 +7999,13 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>842.6516333931879</v>
       </c>
       <c r="P2" t="n">
-        <v>870.5779326741233</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>615.8520732695737</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>176.4768357656695</v>
@@ -8224,16 +8224,16 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>716.8751175230994</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>721.5474740429363</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>822.5705182964546</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
@@ -8242,7 +8242,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>615.8520732695737</v>
       </c>
       <c r="R5" t="n">
         <v>294.54111633436</v>
@@ -8458,7 +8458,7 @@
         <v>120.6470157237802</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>430.3047365861567</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -8467,7 +8467,7 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>179.2523876827512</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
@@ -8479,10 +8479,10 @@
         <v>870.5779326741233</v>
       </c>
       <c r="Q8" t="n">
-        <v>491.4928437002237</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>294.54111633436</v>
+        <v>176.4768357656695</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8698,10 +8698,10 @@
         <v>430.3047365861567</v>
       </c>
       <c r="K11" t="n">
-        <v>716.8751175230994</v>
+        <v>433.9782470873015</v>
       </c>
       <c r="L11" t="n">
-        <v>214.8909222650923</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -8716,10 +8716,10 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>615.8520732695737</v>
       </c>
       <c r="R11" t="n">
-        <v>294.54111633436</v>
+        <v>176.4768357656695</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8935,13 +8935,13 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>716.8751175230994</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>29.34358558167469</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>1060.271045550332</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -8950,10 +8950,10 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>301.7997308240085</v>
       </c>
       <c r="Q14" t="n">
-        <v>615.8520732695737</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>294.54111633436</v>
@@ -9166,7 +9166,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>120.6470157237802</v>
+        <v>44.29520053209296</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -9175,7 +9175,7 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>746.2187031047742</v>
+        <v>835.1386633165826</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -9187,13 +9187,13 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>721.3482088181354</v>
       </c>
       <c r="Q17" t="n">
-        <v>615.8520732695737</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>294.54111633436</v>
+        <v>176.4768357656695</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9403,7 +9403,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>120.6470157237802</v>
+        <v>44.29520053209296</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -9412,10 +9412,10 @@
         <v>716.8751175230994</v>
       </c>
       <c r="L20" t="n">
-        <v>645.1956588512489</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>839.6117546116196</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -9430,7 +9430,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>294.54111633436</v>
+        <v>176.4768357656695</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9640,22 +9640,22 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>120.6470157237802</v>
+        <v>44.29520053209296</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>526.9321130577639</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>835.1386633165846</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>459.8234496459305</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>1096.663422488788</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
@@ -9667,7 +9667,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>294.54111633436</v>
+        <v>176.4768357656695</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9883,10 +9883,10 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>716.8751175230994</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>645.1956588512421</v>
+        <v>835.138663316583</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -9898,13 +9898,13 @@
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>644.996393626448</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>294.54111633436</v>
+        <v>176.4768357656695</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10114,16 +10114,16 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>120.6470157237802</v>
+        <v>44.29520053209296</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>716.8751175230994</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>645.1956588512421</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -10132,16 +10132,16 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>842.6516333931879</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>713.8352387415302</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>294.54111633436</v>
+        <v>176.4768357656695</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10354,19 +10354,19 @@
         <v>120.6470157237802</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>430.3047365861567</v>
       </c>
       <c r="K32" t="n">
-        <v>716.8751175230994</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>645.1956588512421</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>1049.830320356875</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
@@ -10378,7 +10378,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>294.54111633436</v>
+        <v>176.4768357656695</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10588,19 +10588,19 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>120.6470157237802</v>
+        <v>44.29520053209296</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>716.8751175230994</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>645.1956588512421</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>940.6347988651447</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
@@ -10612,10 +10612,10 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>615.8520732695737</v>
       </c>
       <c r="R35" t="n">
-        <v>294.54111633436</v>
+        <v>176.4768357656695</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10828,25 +10828,25 @@
         <v>120.6470157237802</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>430.3047365861567</v>
       </c>
       <c r="K38" t="n">
-        <v>526.9321130577587</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>835.1386633165826</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>61.18810711406104</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>870.5779326741233</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -11062,16 +11062,16 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>120.6470157237802</v>
+        <v>44.29520053209296</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>716.8751175230994</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>645.1956588512421</v>
+        <v>822.5705182964548</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -11086,7 +11086,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>615.8520732695737</v>
       </c>
       <c r="R41" t="n">
         <v>294.54111633436</v>
@@ -11299,22 +11299,22 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>120.6470157237802</v>
+        <v>44.29520053209296</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>716.8751175230994</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>645.1956588512439</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>341.7591690772404</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>1096.663422488788</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
@@ -23314,10 +23314,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>1.388344292978275</v>
       </c>
       <c r="T11" t="n">
-        <v>1.388344292971624</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23442,7 +23442,7 @@
         <v>205.3472244622743</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>97.40414414470841</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23451,13 +23451,13 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>31.85592323974635</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>107.6476277959926</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>168.0209277307011</v>
+        <v>142.3116902230136</v>
       </c>
       <c r="O13" t="n">
         <v>268.0582198167198</v>
@@ -23478,7 +23478,7 @@
         <v>198.7676812603561</v>
       </c>
       <c r="U13" t="n">
-        <v>83.00604195770714</v>
+        <v>150.8146863564251</v>
       </c>
       <c r="V13" t="n">
         <v>199.1703102162162</v>
@@ -23551,13 +23551,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>1.388344292978275</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>1.388344292972306</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23688,13 +23688,13 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>31.85592323974635</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>107.6476277959926</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>168.0209277307011</v>
+        <v>142.3116902230136</v>
       </c>
       <c r="O16" t="n">
         <v>268.0582198167198</v>
@@ -23718,7 +23718,7 @@
         <v>150.8146863564251</v>
       </c>
       <c r="V16" t="n">
-        <v>33.9575216727898</v>
+        <v>199.1703102162162</v>
       </c>
       <c r="W16" t="n">
         <v>226.3728098387097</v>
@@ -23788,7 +23788,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>1.388344292971965</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23803,7 +23803,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>1.38834429297799</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23864,10 +23864,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>1.53369995757339</v>
       </c>
       <c r="S18" t="n">
-        <v>1.533699957572765</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
@@ -23913,10 +23913,10 @@
         <v>242.4092826775956</v>
       </c>
       <c r="H19" t="n">
-        <v>137.5385800635563</v>
+        <v>205.3472244622743</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>97.40414414470841</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23925,13 +23925,13 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>31.85592323974635</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>107.6476277959926</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>168.0209277307011</v>
+        <v>142.3116902230136</v>
       </c>
       <c r="O19" t="n">
         <v>268.0582198167198</v>
@@ -23989,7 +23989,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.388344292971112</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -24025,7 +24025,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>1.388344292978275</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -24101,10 +24101,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>1.53369995757339</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>1.533699957572765</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
@@ -24150,10 +24150,10 @@
         <v>242.4092826775956</v>
       </c>
       <c r="H22" t="n">
-        <v>137.5385800635563</v>
+        <v>205.3472244622743</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>97.40414414470841</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24162,13 +24162,13 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>31.85592323974635</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>107.6476277959926</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>168.0209277307011</v>
+        <v>142.3116902230136</v>
       </c>
       <c r="O22" t="n">
         <v>268.0582198167198</v>
@@ -24229,7 +24229,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>1.388344292978218</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24262,7 +24262,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>1.388344292971965</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -24387,7 +24387,7 @@
         <v>242.4092826775956</v>
       </c>
       <c r="H25" t="n">
-        <v>40.13443591884794</v>
+        <v>205.3472244622743</v>
       </c>
       <c r="I25" t="n">
         <v>97.40414414470841</v>
@@ -24399,13 +24399,13 @@
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>31.85592323974635</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>107.6476277959926</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>168.0209277307011</v>
+        <v>142.3116902230136</v>
       </c>
       <c r="O25" t="n">
         <v>268.0582198167198</v>
@@ -24460,10 +24460,10 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
         <v>1.388344292978218</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -24636,13 +24636,13 @@
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>31.85592323974635</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>107.6476277959926</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>168.0209277307011</v>
+        <v>142.3116902230136</v>
       </c>
       <c r="O28" t="n">
         <v>268.0582198167198</v>
@@ -24666,7 +24666,7 @@
         <v>150.8146863564251</v>
       </c>
       <c r="V28" t="n">
-        <v>33.9575216727898</v>
+        <v>199.1703102162162</v>
       </c>
       <c r="W28" t="n">
         <v>226.3728098387097</v>
@@ -24688,7 +24688,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>1.38834429297799</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -24736,7 +24736,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>1.388344292978275</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -24864,7 +24864,7 @@
         <v>205.3472244622743</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>97.40414414470841</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24873,13 +24873,13 @@
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>31.85592323974635</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>107.6476277959926</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>168.0209277307011</v>
+        <v>142.3116902230136</v>
       </c>
       <c r="O31" t="n">
         <v>268.0582198167198</v>
@@ -24906,7 +24906,7 @@
         <v>199.1703102162162</v>
       </c>
       <c r="W31" t="n">
-        <v>158.5641654399917</v>
+        <v>226.3728098387097</v>
       </c>
       <c r="X31" t="n">
         <v>247.4436454301076</v>
@@ -24931,13 +24931,13 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>1.388344292978218</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.388344292978218</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -25101,7 +25101,7 @@
         <v>205.3472244622743</v>
       </c>
       <c r="I34" t="n">
-        <v>83.00604195770715</v>
+        <v>97.40414414470841</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25110,13 +25110,13 @@
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>31.85592323974635</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>107.6476277959926</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>168.0209277307011</v>
+        <v>142.3116902230136</v>
       </c>
       <c r="O34" t="n">
         <v>268.0582198167198</v>
@@ -25137,7 +25137,7 @@
         <v>198.7676812603561</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>150.8146863564251</v>
       </c>
       <c r="V34" t="n">
         <v>199.1703102162162</v>
@@ -25159,7 +25159,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1.388344292978275</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -25225,7 +25225,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>1.38834429297799</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -25289,7 +25289,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>1.533699957572765</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
@@ -25301,7 +25301,7 @@
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>1.533699957572821</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
@@ -25347,13 +25347,13 @@
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>31.85592323974635</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>107.6476277959926</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>168.0209277307011</v>
+        <v>142.3116902230136</v>
       </c>
       <c r="O37" t="n">
         <v>268.0582198167198</v>
@@ -25380,7 +25380,7 @@
         <v>199.1703102162162</v>
       </c>
       <c r="W37" t="n">
-        <v>61.16002129528329</v>
+        <v>226.3728098387097</v>
       </c>
       <c r="X37" t="n">
         <v>247.4436454301076</v>
@@ -25396,7 +25396,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1.388344292978275</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -25456,7 +25456,7 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>1.388344292978104</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -25523,7 +25523,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>1.53369995757339</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -25538,7 +25538,7 @@
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>1.533699957572821</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -25563,7 +25563,7 @@
         <v>285.5362180555555</v>
       </c>
       <c r="E40" t="n">
-        <v>115.7681162935301</v>
+        <v>280.9809048369565</v>
       </c>
       <c r="F40" t="n">
         <v>274.3828559677419</v>
@@ -25584,13 +25584,13 @@
         <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>31.85592323974635</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>107.6476277959926</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>168.0209277307011</v>
+        <v>142.3116902230136</v>
       </c>
       <c r="O40" t="n">
         <v>268.0582198167198</v>
@@ -25636,7 +25636,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>1.38834429297799</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -25684,7 +25684,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>1.388344292978275</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -25763,7 +25763,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>1.533699957572765</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
@@ -25775,7 +25775,7 @@
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>1.533699957572821</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
@@ -25809,10 +25809,10 @@
         <v>242.4092826775956</v>
       </c>
       <c r="H43" t="n">
-        <v>137.5385800635563</v>
+        <v>205.3472244622743</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>97.40414414470841</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25821,13 +25821,13 @@
         <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>31.85592323974635</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>107.6476277959926</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>168.0209277307011</v>
+        <v>142.3116902230136</v>
       </c>
       <c r="O43" t="n">
         <v>268.0582198167198</v>
@@ -25888,7 +25888,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>1.388344292978218</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25921,7 +25921,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>1.388344292976512</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -26000,7 +26000,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>1.533699957572765</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
@@ -26012,7 +26012,7 @@
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>1.533699957572821</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
@@ -26046,7 +26046,7 @@
         <v>242.4092826775956</v>
       </c>
       <c r="H46" t="n">
-        <v>40.13443591884794</v>
+        <v>205.3472244622743</v>
       </c>
       <c r="I46" t="n">
         <v>97.40414414470841</v>
@@ -26058,13 +26058,13 @@
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>31.85592323974635</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>107.6476277959926</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>168.0209277307011</v>
+        <v>142.3116902230136</v>
       </c>
       <c r="O46" t="n">
         <v>268.0582198167198</v>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>16812.76883547375</v>
+        <v>1391548.529551329</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>33359.18696190735</v>
+        <v>2745378.847908867</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>49905.60508834092</v>
+        <v>4099209.166266407</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>68738.20278394975</v>
+        <v>5311855.334621574</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>87570.80047955856</v>
+        <v>6524501.502976739</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>106403.3981751674</v>
+        <v>7737147.671331897</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>125235.9958707762</v>
+        <v>8949793.839687053</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>144068.593566385</v>
+        <v>10162440.00804221</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>162901.1912619938</v>
+        <v>11375086.17639736</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>181733.7889576026</v>
+        <v>12587732.34475252</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>200566.3866532114</v>
+        <v>13800378.51310768</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>219398.9843488202</v>
+        <v>15013024.68146284</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>238231.5820444292</v>
+        <v>16225670.84981802</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>257064.1797400384</v>
+        <v>17438317.0181732</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>275896.7774356474</v>
+        <v>18650963.18652838</v>
       </c>
     </row>
   </sheetData>
@@ -26319,49 +26319,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>850079.5022245016</v>
+        <v>850079.5022245015</v>
       </c>
       <c r="C2" t="n">
-        <v>850079.5022245016</v>
+        <v>850079.5022245015</v>
       </c>
       <c r="D2" t="n">
         <v>850079.5022245016</v>
       </c>
       <c r="E2" t="n">
+        <v>761428.9894323123</v>
+      </c>
+      <c r="F2" t="n">
+        <v>761428.9894323124</v>
+      </c>
+      <c r="G2" t="n">
+        <v>761428.9894323127</v>
+      </c>
+      <c r="H2" t="n">
+        <v>761428.9894323122</v>
+      </c>
+      <c r="I2" t="n">
+        <v>761428.9894323124</v>
+      </c>
+      <c r="J2" t="n">
+        <v>761428.9894323123</v>
+      </c>
+      <c r="K2" t="n">
         <v>761428.9894323125</v>
       </c>
-      <c r="F2" t="n">
-        <v>761428.9894323125</v>
-      </c>
-      <c r="G2" t="n">
+      <c r="L2" t="n">
         <v>761428.9894323124</v>
       </c>
-      <c r="H2" t="n">
+      <c r="M2" t="n">
+        <v>761428.9894323124</v>
+      </c>
+      <c r="N2" t="n">
+        <v>761428.9894323129</v>
+      </c>
+      <c r="O2" t="n">
+        <v>761428.9894323127</v>
+      </c>
+      <c r="P2" t="n">
         <v>761428.9894323128</v>
-      </c>
-      <c r="I2" t="n">
-        <v>761428.9894323128</v>
-      </c>
-      <c r="J2" t="n">
-        <v>761428.9894323125</v>
-      </c>
-      <c r="K2" t="n">
-        <v>761428.9894323123</v>
-      </c>
-      <c r="L2" t="n">
-        <v>761428.9894323123</v>
-      </c>
-      <c r="M2" t="n">
-        <v>761428.9894323123</v>
-      </c>
-      <c r="N2" t="n">
-        <v>761428.9894323121</v>
-      </c>
-      <c r="O2" t="n">
-        <v>761428.9894323123</v>
-      </c>
-      <c r="P2" t="n">
-        <v>761428.9894323125</v>
       </c>
     </row>
     <row r="3">
@@ -26395,7 +26395,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>620224.0000000001</v>
+        <v>620224</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26423,49 +26423,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>114221.2779508279</v>
+        <v>114221.2779508281</v>
       </c>
       <c r="C4" t="n">
-        <v>113919.3268963468</v>
+        <v>113919.326896347</v>
       </c>
       <c r="D4" t="n">
-        <v>113616.9662264137</v>
+        <v>113616.9662264139</v>
       </c>
       <c r="E4" t="n">
-        <v>38928.936727696</v>
+        <v>38928.93672769592</v>
       </c>
       <c r="F4" t="n">
-        <v>38928.93672769599</v>
+        <v>38928.93672769591</v>
       </c>
       <c r="G4" t="n">
-        <v>38928.93672769599</v>
+        <v>38928.9367276959</v>
       </c>
       <c r="H4" t="n">
-        <v>38928.936727696</v>
+        <v>38928.93672769592</v>
       </c>
       <c r="I4" t="n">
-        <v>38928.93672769601</v>
+        <v>38928.93672769592</v>
       </c>
       <c r="J4" t="n">
-        <v>38928.93672769592</v>
+        <v>38928.93672769591</v>
       </c>
       <c r="K4" t="n">
-        <v>38928.93672769592</v>
+        <v>38928.93672769591</v>
       </c>
       <c r="L4" t="n">
         <v>38928.93672769592</v>
       </c>
       <c r="M4" t="n">
+        <v>38928.93672769591</v>
+      </c>
+      <c r="N4" t="n">
+        <v>38928.93672769591</v>
+      </c>
+      <c r="O4" t="n">
+        <v>38928.93672769591</v>
+      </c>
+      <c r="P4" t="n">
         <v>38928.93672769592</v>
-      </c>
-      <c r="N4" t="n">
-        <v>38928.93672769592</v>
-      </c>
-      <c r="O4" t="n">
-        <v>38928.93672769592</v>
-      </c>
-      <c r="P4" t="n">
-        <v>38928.93672769594</v>
       </c>
     </row>
     <row r="5">
@@ -26475,28 +26475,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>172607.0000000001</v>
+        <v>172607</v>
       </c>
       <c r="C5" t="n">
-        <v>172607.0000000001</v>
+        <v>172607</v>
       </c>
       <c r="D5" t="n">
-        <v>172607.0000000001</v>
+        <v>172607</v>
       </c>
       <c r="E5" t="n">
-        <v>138979.4000000001</v>
+        <v>138979.4</v>
       </c>
       <c r="F5" t="n">
-        <v>138979.4000000001</v>
+        <v>138979.4</v>
       </c>
       <c r="G5" t="n">
-        <v>138979.4000000001</v>
+        <v>138979.4</v>
       </c>
       <c r="H5" t="n">
-        <v>138979.4000000001</v>
+        <v>138979.4</v>
       </c>
       <c r="I5" t="n">
-        <v>138979.4000000001</v>
+        <v>138979.4</v>
       </c>
       <c r="J5" t="n">
         <v>138979.4</v>
@@ -26530,46 +26530,46 @@
         <v>-1481447.775726327</v>
       </c>
       <c r="C6" t="n">
-        <v>563553.1753281547</v>
+        <v>563553.1753281545</v>
       </c>
       <c r="D6" t="n">
-        <v>563855.5359980877</v>
+        <v>563855.5359980876</v>
       </c>
       <c r="E6" t="n">
-        <v>583520.6527046165</v>
+        <v>583520.6527046164</v>
       </c>
       <c r="F6" t="n">
         <v>583520.6527046165</v>
       </c>
       <c r="G6" t="n">
+        <v>583520.6527046168</v>
+      </c>
+      <c r="H6" t="n">
         <v>583520.6527046163</v>
       </c>
-      <c r="H6" t="n">
+      <c r="I6" t="n">
+        <v>583520.6527046165</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-36703.34729538357</v>
+      </c>
+      <c r="K6" t="n">
+        <v>583520.6527046167</v>
+      </c>
+      <c r="L6" t="n">
+        <v>583520.6527046165</v>
+      </c>
+      <c r="M6" t="n">
+        <v>583520.6527046165</v>
+      </c>
+      <c r="N6" t="n">
+        <v>583520.652704617</v>
+      </c>
+      <c r="O6" t="n">
         <v>583520.6527046168</v>
       </c>
-      <c r="I6" t="n">
-        <v>583520.6527046168</v>
-      </c>
-      <c r="J6" t="n">
-        <v>-36703.34729538346</v>
-      </c>
-      <c r="K6" t="n">
-        <v>583520.6527046164</v>
-      </c>
-      <c r="L6" t="n">
-        <v>583520.6527046164</v>
-      </c>
-      <c r="M6" t="n">
-        <v>583520.6527046164</v>
-      </c>
-      <c r="N6" t="n">
-        <v>583520.6527046162</v>
-      </c>
-      <c r="O6" t="n">
-        <v>583520.6527046164</v>
-      </c>
       <c r="P6" t="n">
-        <v>583520.6527046165</v>
+        <v>583520.6527046169</v>
       </c>
     </row>
   </sheetData>
@@ -26919,28 +26919,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1762.000000000002</v>
+        <v>1762</v>
       </c>
       <c r="C4" t="n">
-        <v>1762.000000000002</v>
+        <v>1762</v>
       </c>
       <c r="D4" t="n">
-        <v>1762.000000000002</v>
+        <v>1762</v>
       </c>
       <c r="E4" t="n">
-        <v>1762.000000000002</v>
+        <v>1762</v>
       </c>
       <c r="F4" t="n">
-        <v>1762.000000000002</v>
+        <v>1762</v>
       </c>
       <c r="G4" t="n">
-        <v>1762.000000000002</v>
+        <v>1762</v>
       </c>
       <c r="H4" t="n">
-        <v>1762.000000000002</v>
+        <v>1762</v>
       </c>
       <c r="I4" t="n">
-        <v>1762.000000000002</v>
+        <v>1762</v>
       </c>
       <c r="J4" t="n">
         <v>1762</v>
@@ -27387,7 +27387,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>1762.000000000002</v>
+        <v>1762</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27526,7 +27526,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1.388344292978218</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27559,7 +27559,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>1.388344292971965</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27605,10 +27605,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.533699957573049</v>
       </c>
       <c r="I3" t="n">
-        <v>1.533699957573148</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27666,7 +27666,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>325.7441891675247</v>
+        <v>287.1138003370787</v>
       </c>
       <c r="C4" t="n">
         <v>272.7252466480447</v>
@@ -27702,13 +27702,13 @@
         <v>107.6476277959926</v>
       </c>
       <c r="N4" t="n">
-        <v>168.0209277307011</v>
+        <v>287.9921561219296</v>
       </c>
       <c r="O4" t="n">
         <v>268.0582198167198</v>
       </c>
       <c r="P4" t="n">
-        <v>368.8061924102448</v>
+        <v>400</v>
       </c>
       <c r="Q4" t="n">
         <v>400</v>
@@ -27735,7 +27735,7 @@
         <v>247.4436454301076</v>
       </c>
       <c r="Y4" t="n">
-        <v>400</v>
+        <v>287.4653528494624</v>
       </c>
     </row>
     <row r="5">
@@ -27763,7 +27763,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>1.388344292978218</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27796,7 +27796,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>1.388344292971965</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -27842,10 +27842,10 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>1.533699957573049</v>
       </c>
       <c r="I6" t="n">
-        <v>1.533699957573148</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27927,7 +27927,7 @@
         <v>97.40414414470841</v>
       </c>
       <c r="J7" t="n">
-        <v>151.1650359809837</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27942,10 +27942,10 @@
         <v>168.0209277307011</v>
       </c>
       <c r="O7" t="n">
-        <v>268.0582198167198</v>
+        <v>388.0294482079483</v>
       </c>
       <c r="P7" t="n">
-        <v>368.8061924102448</v>
+        <v>400</v>
       </c>
       <c r="Q7" t="n">
         <v>400</v>
@@ -28000,7 +28000,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>1.388344292971112</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -28039,7 +28039,7 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>1.388344292977649</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -28079,7 +28079,7 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>1.533699957573162</v>
+        <v>1.533699957573049</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -34825,16 +34825,16 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>70.05686619102759</v>
+        <v>76.35181519168728</v>
       </c>
       <c r="J2" t="n">
-        <v>463.4516620966183</v>
+        <v>893.7563986827749</v>
       </c>
       <c r="K2" t="n">
-        <v>747.1142864321608</v>
+        <v>747.114286432161</v>
       </c>
       <c r="L2" t="n">
-        <v>926.8613366834172</v>
+        <v>1134.040023647104</v>
       </c>
       <c r="M2" t="n">
         <v>487.0496964782857</v>
@@ -34843,13 +34843,13 @@
         <v>570.7505695683558</v>
       </c>
       <c r="O2" t="n">
-        <v>919.3483666068121</v>
+        <v>1762</v>
       </c>
       <c r="P2" t="n">
-        <v>1714.888365095753</v>
+        <v>844.3104324216301</v>
       </c>
       <c r="Q2" t="n">
-        <v>1077.286931655656</v>
+        <v>461.4348583860824</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34962,7 +34962,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>38.63038883044603</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -34998,13 +34998,13 @@
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>119.9712283912285</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>31.19380758975518</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -35031,7 +35031,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>112.5346471505376</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -35068,16 +35068,16 @@
         <v>463.4516620966183</v>
       </c>
       <c r="K5" t="n">
-        <v>1463.98940395526</v>
+        <v>747.1142864321608</v>
       </c>
       <c r="L5" t="n">
-        <v>1648.408810726353</v>
+        <v>926.8613366834174</v>
       </c>
       <c r="M5" t="n">
         <v>487.0496964782857</v>
       </c>
       <c r="N5" t="n">
-        <v>570.7505695683558</v>
+        <v>1393.32108786481</v>
       </c>
       <c r="O5" t="n">
         <v>919.3483666068121</v>
@@ -35086,7 +35086,7 @@
         <v>844.3104324216301</v>
       </c>
       <c r="Q5" t="n">
-        <v>461.4348583860824</v>
+        <v>1077.286931655656</v>
       </c>
       <c r="R5" t="n">
         <v>118.0642805686905</v>
@@ -35223,7 +35223,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>302.1616117352398</v>
+        <v>150.9965757542561</v>
       </c>
       <c r="K7" t="n">
         <v>17.57070160869296</v>
@@ -35238,10 +35238,10 @@
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>119.9712283912285</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>31.19380758975518</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35302,16 +35302,16 @@
         <v>76.35181519168728</v>
       </c>
       <c r="J8" t="n">
-        <v>463.4516620966183</v>
+        <v>893.7563986827749</v>
       </c>
       <c r="K8" t="n">
-        <v>747.1142864321607</v>
+        <v>747.114286432161</v>
       </c>
       <c r="L8" t="n">
         <v>926.861336683417</v>
       </c>
       <c r="M8" t="n">
-        <v>487.0496964782857</v>
+        <v>666.3020841610368</v>
       </c>
       <c r="N8" t="n">
         <v>570.7505695683558</v>
@@ -35323,10 +35323,10 @@
         <v>1714.888365095753</v>
       </c>
       <c r="Q8" t="n">
-        <v>952.9277020863061</v>
+        <v>461.4348583860824</v>
       </c>
       <c r="R8" t="n">
-        <v>118.0642805686905</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35542,10 +35542,10 @@
         <v>893.7563986827749</v>
       </c>
       <c r="K11" t="n">
-        <v>1463.98940395526</v>
+        <v>1181.092533519462</v>
       </c>
       <c r="L11" t="n">
-        <v>1141.752258948509</v>
+        <v>926.861336683417</v>
       </c>
       <c r="M11" t="n">
         <v>487.0496964782857</v>
@@ -35560,10 +35560,10 @@
         <v>844.3104324216301</v>
       </c>
       <c r="Q11" t="n">
-        <v>461.4348583860824</v>
+        <v>1077.286931655656</v>
       </c>
       <c r="R11" t="n">
-        <v>118.0642805686905</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35779,13 +35779,13 @@
         <v>463.4516620966183</v>
       </c>
       <c r="K14" t="n">
-        <v>1463.98940395526</v>
+        <v>747.114286432161</v>
       </c>
       <c r="L14" t="n">
-        <v>956.2049222650917</v>
+        <v>926.861336683417</v>
       </c>
       <c r="M14" t="n">
-        <v>487.0496964782857</v>
+        <v>1547.320742028618</v>
       </c>
       <c r="N14" t="n">
         <v>570.7505695683558</v>
@@ -35794,10 +35794,10 @@
         <v>919.3483666068121</v>
       </c>
       <c r="P14" t="n">
-        <v>844.3104324216301</v>
+        <v>1146.110163245639</v>
       </c>
       <c r="Q14" t="n">
-        <v>1077.286931655656</v>
+        <v>461.4348583860824</v>
       </c>
       <c r="R14" t="n">
         <v>118.0642805686905</v>
@@ -36010,16 +36010,16 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>76.35181519168728</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>463.4516620966183</v>
       </c>
       <c r="K17" t="n">
-        <v>747.1142864321607</v>
+        <v>747.1142864321608</v>
       </c>
       <c r="L17" t="n">
-        <v>1673.080039788191</v>
+        <v>1762</v>
       </c>
       <c r="M17" t="n">
         <v>487.0496964782857</v>
@@ -36031,13 +36031,13 @@
         <v>919.3483666068121</v>
       </c>
       <c r="P17" t="n">
-        <v>844.3104324216301</v>
+        <v>1565.658641239766</v>
       </c>
       <c r="Q17" t="n">
-        <v>1077.286931655656</v>
+        <v>461.4348583860824</v>
       </c>
       <c r="R17" t="n">
-        <v>118.0642805686905</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -36247,19 +36247,19 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>76.35181519168728</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>463.4516620966183</v>
       </c>
       <c r="K20" t="n">
-        <v>1463.98940395526</v>
+        <v>1463.989403955261</v>
       </c>
       <c r="L20" t="n">
-        <v>1572.056995534666</v>
+        <v>926.861336683417</v>
       </c>
       <c r="M20" t="n">
-        <v>487.0496964782857</v>
+        <v>1326.661451089905</v>
       </c>
       <c r="N20" t="n">
         <v>570.7505695683558</v>
@@ -36274,7 +36274,7 @@
         <v>461.4348583860824</v>
       </c>
       <c r="R20" t="n">
-        <v>118.0642805686905</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36484,22 +36484,22 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>76.35181519168728</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>463.4516620966183</v>
       </c>
       <c r="K23" t="n">
-        <v>1274.046399489925</v>
+        <v>747.1142864321608</v>
       </c>
       <c r="L23" t="n">
-        <v>1762.000000000002</v>
+        <v>926.8613366834174</v>
       </c>
       <c r="M23" t="n">
-        <v>487.0496964782857</v>
+        <v>946.8731461242162</v>
       </c>
       <c r="N23" t="n">
-        <v>570.7505695683558</v>
+        <v>1667.413992057144</v>
       </c>
       <c r="O23" t="n">
         <v>919.3483666068121</v>
@@ -36511,7 +36511,7 @@
         <v>461.4348583860824</v>
       </c>
       <c r="R23" t="n">
-        <v>118.0642805686905</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36727,10 +36727,10 @@
         <v>463.4516620966183</v>
       </c>
       <c r="K26" t="n">
-        <v>1463.98940395526</v>
+        <v>747.114286432161</v>
       </c>
       <c r="L26" t="n">
-        <v>1572.05699553466</v>
+        <v>1762</v>
       </c>
       <c r="M26" t="n">
         <v>487.0496964782857</v>
@@ -36742,13 +36742,13 @@
         <v>919.3483666068121</v>
       </c>
       <c r="P26" t="n">
-        <v>844.3104324216301</v>
+        <v>1489.306826048078</v>
       </c>
       <c r="Q26" t="n">
         <v>461.4348583860824</v>
       </c>
       <c r="R26" t="n">
-        <v>118.0642805686905</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36958,16 +36958,16 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>76.35181519168728</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>463.4516620966183</v>
       </c>
       <c r="K29" t="n">
-        <v>1463.98940395526</v>
+        <v>747.1142864321608</v>
       </c>
       <c r="L29" t="n">
-        <v>1572.05699553466</v>
+        <v>926.8613366834174</v>
       </c>
       <c r="M29" t="n">
         <v>487.0496964782857</v>
@@ -36976,16 +36976,16 @@
         <v>570.7505695683558</v>
       </c>
       <c r="O29" t="n">
-        <v>919.3483666068121</v>
+        <v>1762</v>
       </c>
       <c r="P29" t="n">
-        <v>844.3104324216301</v>
+        <v>1558.14567116316</v>
       </c>
       <c r="Q29" t="n">
         <v>461.4348583860824</v>
       </c>
       <c r="R29" t="n">
-        <v>118.0642805686905</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -37198,19 +37198,19 @@
         <v>76.35181519168728</v>
       </c>
       <c r="J32" t="n">
-        <v>463.4516620966183</v>
+        <v>893.7563986827749</v>
       </c>
       <c r="K32" t="n">
-        <v>1463.98940395526</v>
+        <v>747.114286432161</v>
       </c>
       <c r="L32" t="n">
-        <v>1572.05699553466</v>
+        <v>926.861336683417</v>
       </c>
       <c r="M32" t="n">
         <v>487.0496964782857</v>
       </c>
       <c r="N32" t="n">
-        <v>570.7505695683558</v>
+        <v>1620.580889925231</v>
       </c>
       <c r="O32" t="n">
         <v>919.3483666068121</v>
@@ -37222,7 +37222,7 @@
         <v>461.4348583860824</v>
       </c>
       <c r="R32" t="n">
-        <v>118.0642805686905</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37432,19 +37432,19 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>76.35181519168728</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>463.4516620966183</v>
       </c>
       <c r="K35" t="n">
-        <v>1463.98940395526</v>
+        <v>747.1142864321608</v>
       </c>
       <c r="L35" t="n">
-        <v>1572.05699553466</v>
+        <v>926.8613366834174</v>
       </c>
       <c r="M35" t="n">
-        <v>487.0496964782857</v>
+        <v>1427.68449534343</v>
       </c>
       <c r="N35" t="n">
         <v>570.7505695683558</v>
@@ -37456,10 +37456,10 @@
         <v>844.3104324216301</v>
       </c>
       <c r="Q35" t="n">
-        <v>461.4348583860824</v>
+        <v>1077.286931655656</v>
       </c>
       <c r="R35" t="n">
-        <v>118.0642805686905</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37672,25 +37672,25 @@
         <v>76.35181519168728</v>
       </c>
       <c r="J38" t="n">
-        <v>463.4516620966183</v>
+        <v>893.7563986827749</v>
       </c>
       <c r="K38" t="n">
-        <v>1274.04639948992</v>
+        <v>747.114286432161</v>
       </c>
       <c r="L38" t="n">
-        <v>1762</v>
+        <v>926.861336683417</v>
       </c>
       <c r="M38" t="n">
         <v>487.0496964782857</v>
       </c>
       <c r="N38" t="n">
-        <v>570.7505695683558</v>
+        <v>631.9386766824168</v>
       </c>
       <c r="O38" t="n">
         <v>919.3483666068121</v>
       </c>
       <c r="P38" t="n">
-        <v>844.3104324216301</v>
+        <v>1714.888365095753</v>
       </c>
       <c r="Q38" t="n">
         <v>461.4348583860824</v>
@@ -37906,16 +37906,16 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>76.35181519168728</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>463.4516620966183</v>
       </c>
       <c r="K41" t="n">
-        <v>1463.98940395526</v>
+        <v>747.1142864321608</v>
       </c>
       <c r="L41" t="n">
-        <v>1572.05699553466</v>
+        <v>1749.431854979872</v>
       </c>
       <c r="M41" t="n">
         <v>487.0496964782857</v>
@@ -37930,7 +37930,7 @@
         <v>844.3104324216301</v>
       </c>
       <c r="Q41" t="n">
-        <v>461.4348583860824</v>
+        <v>1077.286931655656</v>
       </c>
       <c r="R41" t="n">
         <v>118.0642805686905</v>
@@ -38143,22 +38143,22 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>76.35181519168728</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>463.4516620966183</v>
       </c>
       <c r="K44" t="n">
-        <v>1463.98940395526</v>
+        <v>747.1142864321608</v>
       </c>
       <c r="L44" t="n">
-        <v>1572.056995534661</v>
+        <v>926.8613366834174</v>
       </c>
       <c r="M44" t="n">
-        <v>487.0496964782857</v>
+        <v>828.808865555526</v>
       </c>
       <c r="N44" t="n">
-        <v>570.7505695683558</v>
+        <v>1667.413992057144</v>
       </c>
       <c r="O44" t="n">
         <v>919.3483666068121</v>
